--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3982756.225973278</v>
+        <v>3980298.490381326</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162636.5095402111</v>
+        <v>162636.509540211</v>
       </c>
     </row>
     <row r="9">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.52975267491847</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>133.3848909959479</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>15.08575707671319</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>118.3455344421991</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.41402108404357</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>236.3626115273232</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,11 +908,11 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>93.88791431953697</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>88.21024760771094</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>54.72059546277752</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7.884372849250095</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>94.25736106477147</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>36.2593956996779</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>159.3308024881128</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>127.004412707233</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686237</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>124.0065352791008</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>121.8250249074576</v>
       </c>
       <c r="F13" t="n">
         <v>120.8121102838197</v>
       </c>
       <c r="G13" t="n">
-        <v>141.0411677279876</v>
+        <v>12.93992050835152</v>
       </c>
       <c r="H13" t="n">
-        <v>110.5295154947893</v>
+        <v>116.8057378069678</v>
       </c>
       <c r="I13" t="n">
         <v>60.44507507344368</v>
@@ -1658,7 +1658,7 @@
         <v>65.49281328118855</v>
       </c>
       <c r="T14" t="n">
-        <v>175.642591933745</v>
+        <v>175.6425919337451</v>
       </c>
       <c r="U14" t="n">
         <v>226.3192290256519</v>
@@ -1771,19 +1771,19 @@
         <v>124.0065352791008</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>121.8250249074576</v>
       </c>
       <c r="F16" t="n">
-        <v>120.8121102838197</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>141.0411677279876</v>
       </c>
       <c r="H16" t="n">
-        <v>110.5295154947893</v>
+        <v>116.8057378069678</v>
       </c>
       <c r="I16" t="n">
-        <v>60.44507507344368</v>
+        <v>53.15593813762722</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>345.1221629393575</v>
       </c>
       <c r="Y17" t="n">
-        <v>361.6290009169421</v>
+        <v>361.629000916942</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>142.6378833595163</v>
       </c>
       <c r="D19" t="n">
-        <v>116.7173983432843</v>
+        <v>112.7110258664324</v>
       </c>
       <c r="E19" t="n">
         <v>121.8250249074576</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>120.8121102838197</v>
       </c>
       <c r="G19" t="n">
         <v>141.0411677279876</v>
       </c>
       <c r="H19" t="n">
-        <v>116.8057378069678</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>60.44507507344368</v>
@@ -2081,7 +2081,7 @@
         <v>358.124903924369</v>
       </c>
       <c r="C20" t="n">
-        <v>340.663954031896</v>
+        <v>340.6639540318947</v>
       </c>
       <c r="D20" t="n">
         <v>330.0741038815714</v>
@@ -2090,7 +2090,7 @@
         <v>357.3214323331502</v>
       </c>
       <c r="F20" t="n">
-        <v>382.2671080025985</v>
+        <v>382.2671080025999</v>
       </c>
       <c r="G20" t="n">
         <v>385.4752229876112</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>65.49281328118857</v>
+        <v>65.49281328118855</v>
       </c>
       <c r="T20" t="n">
         <v>175.642591933745</v>
@@ -2178,7 +2178,7 @@
         <v>85.26881792129963</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3879492214827</v>
+        <v>3.387949221482685</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>121.8250249074576</v>
       </c>
       <c r="F22" t="n">
-        <v>116.7173983432839</v>
+        <v>120.8121102838197</v>
       </c>
       <c r="G22" t="n">
         <v>141.0411677279876</v>
@@ -2257,7 +2257,7 @@
         <v>116.8057378069678</v>
       </c>
       <c r="I22" t="n">
-        <v>60.44507507344369</v>
+        <v>60.44507507344368</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.43025121383756</v>
+        <v>47.43025121383754</v>
       </c>
       <c r="S22" t="n">
         <v>158.6126125729859</v>
@@ -2302,7 +2302,7 @@
         <v>261.9140605974794</v>
       </c>
       <c r="X22" t="n">
-        <v>201.1007176499256</v>
+        <v>197.0060057093903</v>
       </c>
       <c r="Y22" t="n">
         <v>193.9757156129832</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>65.49281328118857</v>
+        <v>65.49281328118855</v>
       </c>
       <c r="T23" t="n">
         <v>175.642591933745</v>
@@ -2415,7 +2415,7 @@
         <v>85.26881792129963</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3879492214827</v>
+        <v>3.387949221482685</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>142.6378833595163</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>124.0065352791008</v>
       </c>
       <c r="E25" t="n">
-        <v>117.7303129669218</v>
+        <v>114.5358879716411</v>
       </c>
       <c r="F25" t="n">
-        <v>120.8121102838197</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>141.0411677279876</v>
@@ -2494,7 +2494,7 @@
         <v>116.8057378069678</v>
       </c>
       <c r="I25" t="n">
-        <v>60.44507507344369</v>
+        <v>60.44507507344368</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.43025121383756</v>
+        <v>47.43025121383754</v>
       </c>
       <c r="S25" t="n">
         <v>158.6126125729859</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0841607267227</v>
+        <v>410.0841607267228</v>
       </c>
       <c r="H26" t="n">
         <v>286.0300525814397</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>90.10175102030016</v>
+        <v>90.10175102030013</v>
       </c>
       <c r="T26" t="n">
         <v>200.2515296728565</v>
@@ -2612,7 +2612,7 @@
         <v>250.9281667647635</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>85.26881792129963</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3879492214827</v>
+        <v>3.387949221482685</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.05401281255527</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>72.03918895294912</v>
       </c>
       <c r="S28" t="n">
         <v>183.2215503120975</v>
@@ -2767,7 +2767,7 @@
         <v>217.9436737106544</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1913453260531</v>
+        <v>256.9638553825685</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7403570843723</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0841607267227</v>
+        <v>410.0841607267228</v>
       </c>
       <c r="H29" t="n">
         <v>286.0300525814397</v>
       </c>
       <c r="I29" t="n">
-        <v>9.286707935140825</v>
+        <v>9.286707935140839</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>90.10175102030009</v>
+        <v>90.10175102030013</v>
       </c>
       <c r="T29" t="n">
         <v>200.2515296728565</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9281667647634</v>
+        <v>250.9281667647635</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>85.26881792129963</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3879492214827</v>
+        <v>3.387949221482685</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>84.76662024642764</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6501054670992</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.05401281255526</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>72.03918895294912</v>
       </c>
       <c r="S31" t="n">
-        <v>61.98085321821505</v>
+        <v>183.2215503120975</v>
       </c>
       <c r="T31" t="n">
         <v>217.9436737106544</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>358.1249039243689</v>
+        <v>358.1249039243691</v>
       </c>
       <c r="C32" t="n">
-        <v>340.6639540318959</v>
+        <v>340.663954031896</v>
       </c>
       <c r="D32" t="n">
-        <v>330.0741038815713</v>
+        <v>330.0741038815714</v>
       </c>
       <c r="E32" t="n">
-        <v>357.3214323331501</v>
+        <v>357.3214323331503</v>
       </c>
       <c r="F32" t="n">
-        <v>382.2671080025997</v>
+        <v>382.2671080025999</v>
       </c>
       <c r="G32" t="n">
-        <v>385.4752229876111</v>
+        <v>385.4752229876112</v>
       </c>
       <c r="H32" t="n">
-        <v>261.4211148423281</v>
+        <v>261.4211148423282</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.49281328118845</v>
+        <v>65.49281328118862</v>
       </c>
       <c r="T32" t="n">
-        <v>175.6425919337448</v>
+        <v>175.642591933745</v>
       </c>
       <c r="U32" t="n">
-        <v>226.3192290256518</v>
+        <v>226.319229025652</v>
       </c>
       <c r="V32" t="n">
-        <v>303.1433207310232</v>
+        <v>303.1433207310234</v>
       </c>
       <c r="W32" t="n">
-        <v>324.6320309783013</v>
+        <v>324.6320309783015</v>
       </c>
       <c r="X32" t="n">
-        <v>345.1221629393573</v>
+        <v>345.1221629393575</v>
       </c>
       <c r="Y32" t="n">
-        <v>361.6290009169419</v>
+        <v>361.6290009169421</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>85.26881792129963</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3879492214827</v>
+        <v>3.387949221482685</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.2230424428256</v>
+        <v>155.2230424428258</v>
       </c>
       <c r="C34" t="n">
-        <v>142.6378833595161</v>
+        <v>142.6378833595163</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>124.0065352791008</v>
       </c>
       <c r="E34" t="n">
-        <v>117.7303129669247</v>
+        <v>121.8250249074577</v>
       </c>
       <c r="F34" t="n">
-        <v>120.8121102838195</v>
+        <v>109.5166008711501</v>
       </c>
       <c r="G34" t="n">
-        <v>141.0411677279875</v>
+        <v>141.0411677279877</v>
       </c>
       <c r="H34" t="n">
-        <v>116.8057378069676</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.44507507344355</v>
+        <v>60.44507507344373</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.43025121383745</v>
+        <v>47.43025121383759</v>
       </c>
       <c r="S34" t="n">
-        <v>158.6126125729858</v>
+        <v>158.612612572986</v>
       </c>
       <c r="T34" t="n">
-        <v>193.3347359715427</v>
+        <v>193.3347359715429</v>
       </c>
       <c r="U34" t="n">
-        <v>261.5824075869414</v>
+        <v>261.5824075869415</v>
       </c>
       <c r="V34" t="n">
-        <v>227.5287055847163</v>
+        <v>227.5287055847165</v>
       </c>
       <c r="W34" t="n">
-        <v>261.9140605974793</v>
+        <v>261.9140605974795</v>
       </c>
       <c r="X34" t="n">
-        <v>201.1007176499255</v>
+        <v>201.1007176499256</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.9757156129831</v>
+        <v>193.9757156129833</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>65.49281328118843</v>
+        <v>65.49281328118845</v>
       </c>
       <c r="T35" t="n">
         <v>175.6425919337449</v>
       </c>
       <c r="U35" t="n">
-        <v>226.3192290256518</v>
+        <v>226.3192290256519</v>
       </c>
       <c r="V35" t="n">
         <v>303.1433207310232</v>
@@ -3363,7 +3363,7 @@
         <v>85.26881792129963</v>
       </c>
       <c r="I36" t="n">
-        <v>3.3879492214827</v>
+        <v>3.387949221482685</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>155.2230424428256</v>
       </c>
       <c r="C37" t="n">
-        <v>142.6378833595161</v>
+        <v>136.3616610473404</v>
       </c>
       <c r="D37" t="n">
-        <v>124.0065352791006</v>
+        <v>124.0065352791007</v>
       </c>
       <c r="E37" t="n">
-        <v>121.8250249074575</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>120.8121102838195</v>
+        <v>120.8121102838196</v>
       </c>
       <c r="G37" t="n">
-        <v>141.0411677279875</v>
+        <v>141.0411677279876</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.8057378069677</v>
       </c>
       <c r="I37" t="n">
-        <v>49.14956566077784</v>
+        <v>60.44507507344359</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>47.43025121383745</v>
       </c>
       <c r="S37" t="n">
-        <v>158.6126125729858</v>
+        <v>158.6126125729859</v>
       </c>
       <c r="T37" t="n">
         <v>193.3347359715427</v>
@@ -3512,7 +3512,7 @@
         <v>357.3214323331501</v>
       </c>
       <c r="F38" t="n">
-        <v>382.2671080026</v>
+        <v>382.2671080025998</v>
       </c>
       <c r="G38" t="n">
         <v>385.4752229876111</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>65.49281328118852</v>
+        <v>65.49281328118849</v>
       </c>
       <c r="T38" t="n">
         <v>175.6425919337449</v>
@@ -3600,7 +3600,7 @@
         <v>85.26881792129963</v>
       </c>
       <c r="I39" t="n">
-        <v>3.3879492214827</v>
+        <v>3.387949221482685</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>142.6378833595162</v>
       </c>
       <c r="D40" t="n">
-        <v>124.0065352791007</v>
+        <v>117.7303129669237</v>
       </c>
       <c r="E40" t="n">
-        <v>121.8250249074575</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>120.8121102838196</v>
@@ -3676,10 +3676,10 @@
         <v>141.0411677279876</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.8057378069677</v>
       </c>
       <c r="I40" t="n">
-        <v>49.14956566077646</v>
+        <v>60.44507507344362</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.43025121383751</v>
+        <v>47.43025121383748</v>
       </c>
       <c r="S40" t="n">
         <v>158.6126125729859</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>358.124903924369</v>
+        <v>358.1249039243689</v>
       </c>
       <c r="C41" t="n">
-        <v>340.663954031896</v>
+        <v>340.6639540318959</v>
       </c>
       <c r="D41" t="n">
-        <v>330.0741038815714</v>
+        <v>330.0741038815713</v>
       </c>
       <c r="E41" t="n">
-        <v>357.3214323331502</v>
+        <v>357.3214323331501</v>
       </c>
       <c r="F41" t="n">
-        <v>382.2671080025999</v>
+        <v>382.2671080025998</v>
       </c>
       <c r="G41" t="n">
-        <v>385.4752229876112</v>
+        <v>385.4752229876111</v>
       </c>
       <c r="H41" t="n">
-        <v>261.4211148423282</v>
+        <v>261.4211148423281</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>65.49281328118857</v>
+        <v>65.4928132811885</v>
       </c>
       <c r="T41" t="n">
-        <v>175.642591933745</v>
+        <v>175.6425919337449</v>
       </c>
       <c r="U41" t="n">
         <v>226.3192290256519</v>
@@ -3803,10 +3803,10 @@
         <v>324.6320309783014</v>
       </c>
       <c r="X41" t="n">
-        <v>345.1221629393575</v>
+        <v>345.1221629393574</v>
       </c>
       <c r="Y41" t="n">
-        <v>361.629000916942</v>
+        <v>361.6290009169419</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>85.26881792129963</v>
       </c>
       <c r="I42" t="n">
-        <v>3.3879492214827</v>
+        <v>3.387949221482685</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.2230424428257</v>
       </c>
       <c r="C43" t="n">
-        <v>142.6378833595163</v>
+        <v>142.6378833595162</v>
       </c>
       <c r="D43" t="n">
-        <v>56.35036313290799</v>
+        <v>124.0065352791007</v>
       </c>
       <c r="E43" t="n">
-        <v>121.8250249074576</v>
+        <v>121.8250249074575</v>
       </c>
       <c r="F43" t="n">
-        <v>120.8121102838197</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>141.0411677279876</v>
       </c>
       <c r="H43" t="n">
-        <v>116.8057378069678</v>
+        <v>109.5166008711523</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.44507507344365</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.43025121383756</v>
+        <v>47.43025121383751</v>
       </c>
       <c r="S43" t="n">
         <v>158.6126125729859</v>
@@ -3952,7 +3952,7 @@
         <v>193.3347359715428</v>
       </c>
       <c r="U43" t="n">
-        <v>261.5824075869415</v>
+        <v>261.5824075869414</v>
       </c>
       <c r="V43" t="n">
         <v>227.5287055847164</v>
@@ -3961,7 +3961,7 @@
         <v>261.9140605974794</v>
       </c>
       <c r="X43" t="n">
-        <v>201.1007176499256</v>
+        <v>201.1007176499255</v>
       </c>
       <c r="Y43" t="n">
         <v>193.9757156129832</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>358.124903924369</v>
+        <v>358.1249039243689</v>
       </c>
       <c r="C44" t="n">
-        <v>340.663954031896</v>
+        <v>340.6639540318959</v>
       </c>
       <c r="D44" t="n">
-        <v>330.0741038815714</v>
+        <v>330.0741038815713</v>
       </c>
       <c r="E44" t="n">
-        <v>357.3214323331502</v>
+        <v>357.3214323331501</v>
       </c>
       <c r="F44" t="n">
-        <v>382.2671080025999</v>
+        <v>382.2671080025998</v>
       </c>
       <c r="G44" t="n">
-        <v>385.4752229876112</v>
+        <v>385.4752229876111</v>
       </c>
       <c r="H44" t="n">
-        <v>261.4211148423282</v>
+        <v>261.4211148423281</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>65.49281328118857</v>
+        <v>65.4928132811885</v>
       </c>
       <c r="T44" t="n">
-        <v>175.642591933745</v>
+        <v>175.6425919337449</v>
       </c>
       <c r="U44" t="n">
         <v>226.3192290256519</v>
@@ -4040,10 +4040,10 @@
         <v>324.6320309783014</v>
       </c>
       <c r="X44" t="n">
-        <v>345.1221629393575</v>
+        <v>345.1221629393574</v>
       </c>
       <c r="Y44" t="n">
-        <v>361.629000916942</v>
+        <v>361.6290009169419</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>85.26881792129963</v>
       </c>
       <c r="I45" t="n">
-        <v>3.3879492214827</v>
+        <v>3.387949221482685</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>155.2230424428257</v>
       </c>
       <c r="C46" t="n">
-        <v>142.6378833595163</v>
+        <v>142.6378833595162</v>
       </c>
       <c r="D46" t="n">
-        <v>124.0065352791008</v>
+        <v>124.0065352791007</v>
       </c>
       <c r="E46" t="n">
-        <v>121.8250249074576</v>
+        <v>121.8250249074575</v>
       </c>
       <c r="F46" t="n">
-        <v>120.8121102838197</v>
+        <v>120.8121102838196</v>
       </c>
       <c r="G46" t="n">
-        <v>141.0411677279876</v>
+        <v>129.7456583153203</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>49.14956566077491</v>
+        <v>60.44507507344365</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.43025121383756</v>
+        <v>47.43025121383751</v>
       </c>
       <c r="S46" t="n">
         <v>158.6126125729859</v>
@@ -4189,7 +4189,7 @@
         <v>193.3347359715428</v>
       </c>
       <c r="U46" t="n">
-        <v>261.5824075869415</v>
+        <v>261.5824075869414</v>
       </c>
       <c r="V46" t="n">
         <v>227.5287055847164</v>
@@ -4198,7 +4198,7 @@
         <v>261.9140605974794</v>
       </c>
       <c r="X46" t="n">
-        <v>201.1007176499256</v>
+        <v>201.1007176499255</v>
       </c>
       <c r="Y46" t="n">
         <v>193.9757156129832</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298.0443927628305</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="C2" t="n">
-        <v>298.0443927628305</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="D2" t="n">
-        <v>298.0443927628305</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="E2" t="n">
-        <v>298.0443927628305</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="F2" t="n">
-        <v>291.0988920136271</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4352,28 +4352,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>997.887577549173</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>788.8857000745136</v>
+        <v>772.7231926143249</v>
       </c>
       <c r="T2" t="n">
-        <v>563.9454371584534</v>
+        <v>547.7829296982649</v>
       </c>
       <c r="U2" t="n">
-        <v>563.9454371584534</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="V2" t="n">
-        <v>563.9454371584534</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="W2" t="n">
-        <v>563.9454371584534</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="X2" t="n">
-        <v>298.0443927628305</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="Y2" t="n">
-        <v>298.0443927628305</v>
+        <v>293.9059078609596</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.6842566639671</v>
+        <v>329.2312273828401</v>
       </c>
       <c r="C3" t="n">
         <v>329.2312273828401</v>
@@ -4407,19 +4407,19 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K3" t="n">
-        <v>23.49394112985789</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L3" t="n">
-        <v>264.0974690247203</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="M3" t="n">
-        <v>524.7070826368703</v>
+        <v>418.8306641520621</v>
       </c>
       <c r="N3" t="n">
-        <v>785.3166962490202</v>
+        <v>679.4402777642121</v>
       </c>
       <c r="O3" t="n">
         <v>785.3166962490202</v>
@@ -4431,28 +4431,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S3" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T3" t="n">
-        <v>939.6648841867161</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U3" t="n">
-        <v>711.4445554289209</v>
+        <v>824.7478070488712</v>
       </c>
       <c r="V3" t="n">
-        <v>711.4445554289209</v>
+        <v>824.7478070488712</v>
       </c>
       <c r="W3" t="n">
-        <v>711.4445554289209</v>
+        <v>705.206863167862</v>
       </c>
       <c r="X3" t="n">
-        <v>711.4445554289209</v>
+        <v>705.206863167862</v>
       </c>
       <c r="Y3" t="n">
-        <v>503.6842566639671</v>
+        <v>497.4465644029081</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9493102140437</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
         <v>21.05936271613333</v>
@@ -4516,22 +4516,22 @@
         <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>825.6800813726992</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="C5" t="n">
-        <v>546.7341079359765</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="D5" t="n">
-        <v>307.9839952821146</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="E5" t="n">
-        <v>307.9839952821146</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="F5" t="n">
+        <v>316.3535940554561</v>
+      </c>
+      <c r="G5" t="n">
         <v>301.0384945329112</v>
-      </c>
-      <c r="G5" t="n">
-        <v>22.09252109618844</v>
       </c>
       <c r="H5" t="n">
         <v>22.09252109618844</v>
@@ -4568,7 +4568,7 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L5" t="n">
         <v>344.9085595412869</v>
@@ -4592,25 +4592,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S5" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T5" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="U5" t="n">
-        <v>1104.626054809422</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="V5" t="n">
-        <v>1104.626054809422</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="W5" t="n">
-        <v>1104.626054809422</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="X5" t="n">
-        <v>1104.626054809422</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="Y5" t="n">
-        <v>1104.626054809422</v>
+        <v>323.2990948046595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>285.6468105871245</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="C6" t="n">
-        <v>111.1937813059975</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="D6" t="n">
-        <v>22.09252109618844</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="E6" t="n">
-        <v>22.09252109618844</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="F6" t="n">
-        <v>22.09252109618844</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618844</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I6" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J6" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K6" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L6" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="M6" t="n">
-        <v>288.9361218459458</v>
+        <v>439.1939517187799</v>
       </c>
       <c r="N6" t="n">
-        <v>562.3310704112777</v>
+        <v>712.5889002841118</v>
       </c>
       <c r="O6" t="n">
-        <v>828.8278839945615</v>
+        <v>979.0857138673956</v>
       </c>
       <c r="P6" t="n">
         <v>1025.71200399185</v>
@@ -4668,28 +4668,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T6" t="n">
-        <v>1104.626054809422</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U6" t="n">
-        <v>1104.626054809422</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="V6" t="n">
-        <v>869.4739465776793</v>
+        <v>372.8060245939352</v>
       </c>
       <c r="W6" t="n">
-        <v>869.4739465776793</v>
+        <v>372.8060245939352</v>
       </c>
       <c r="X6" t="n">
-        <v>661.6224463721464</v>
+        <v>372.8060245939352</v>
       </c>
       <c r="Y6" t="n">
-        <v>453.8621476071925</v>
+        <v>165.0457258289813</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C7" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D7" t="n">
         <v>22.09252109618844</v>
@@ -4744,31 +4744,31 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="T7" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="U7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117851</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2605.494749326818</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2386.860082298881</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2386.860082298881</v>
+        <v>2317.574219456838</v>
       </c>
       <c r="V8" t="n">
-        <v>2386.860082298881</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="W8" t="n">
-        <v>2386.860082298881</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>2386.860082298881</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1996.720750323069</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4908,25 +4908,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832261</v>
       </c>
     </row>
     <row r="11">
@@ -5075,13 +5075,13 @@
         <v>3874.689185996663</v>
       </c>
       <c r="V11" t="n">
-        <v>3568.483811520882</v>
+        <v>3568.483811520881</v>
       </c>
       <c r="W11" t="n">
         <v>3240.572669118557</v>
       </c>
       <c r="X11" t="n">
-        <v>2891.964423725267</v>
+        <v>2891.964423725266</v>
       </c>
       <c r="Y11" t="n">
         <v>2526.682604617245</v>
@@ -5127,13 +5127,13 @@
         <v>995.4629046657981</v>
       </c>
       <c r="M12" t="n">
-        <v>1555.151383747228</v>
+        <v>1401.248133782733</v>
       </c>
       <c r="N12" t="n">
-        <v>2144.061796380645</v>
+        <v>1401.248133782733</v>
       </c>
       <c r="O12" t="n">
-        <v>2312.984622906309</v>
+        <v>1917.766313155702</v>
       </c>
       <c r="P12" t="n">
         <v>2312.984622906309</v>
@@ -5182,13 +5182,13 @@
         <v>524.1371789369555</v>
       </c>
       <c r="E13" t="n">
-        <v>524.1371789369555</v>
+        <v>401.0815982223518</v>
       </c>
       <c r="F13" t="n">
-        <v>402.1047443068346</v>
+        <v>279.049163592231</v>
       </c>
       <c r="G13" t="n">
-        <v>259.6389183189683</v>
+        <v>265.9785368161183</v>
       </c>
       <c r="H13" t="n">
         <v>147.9929430717064</v>
@@ -5203,7 +5203,7 @@
         <v>454.2827244468013</v>
       </c>
       <c r="L13" t="n">
-        <v>850.5035623898789</v>
+        <v>850.5035623898788</v>
       </c>
       <c r="M13" t="n">
         <v>1277.327645522233</v>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2164.940277420911</v>
+        <v>2164.940277420912</v>
       </c>
       <c r="C14" t="n">
         <v>1820.835273348289</v>
@@ -5261,43 +5261,43 @@
         <v>1487.427087609328</v>
       </c>
       <c r="E14" t="n">
-        <v>1126.496347878873</v>
+        <v>1126.496347878874</v>
       </c>
       <c r="F14" t="n">
-        <v>740.3679559570551</v>
+        <v>740.3679559570555</v>
       </c>
       <c r="G14" t="n">
-        <v>350.9990438483569</v>
+        <v>350.9990438483574</v>
       </c>
       <c r="H14" t="n">
-        <v>86.93731168438904</v>
+        <v>86.93731168438954</v>
       </c>
       <c r="I14" t="n">
         <v>86.93731168438954</v>
       </c>
       <c r="J14" t="n">
-        <v>346.1928460815232</v>
+        <v>346.1928460815244</v>
       </c>
       <c r="K14" t="n">
-        <v>785.488205324503</v>
+        <v>785.4882053245042</v>
       </c>
       <c r="L14" t="n">
-        <v>1367.374705476215</v>
+        <v>1367.374705476216</v>
       </c>
       <c r="M14" t="n">
-        <v>2046.504991864533</v>
+        <v>2046.504991864534</v>
       </c>
       <c r="N14" t="n">
-        <v>2741.238124674301</v>
+        <v>2741.238124674302</v>
       </c>
       <c r="O14" t="n">
-        <v>3383.919660426847</v>
+        <v>3383.919660426848</v>
       </c>
       <c r="P14" t="n">
-        <v>3897.932481369857</v>
+        <v>3897.932481369858</v>
       </c>
       <c r="Q14" t="n">
-        <v>4235.761956712214</v>
+        <v>4235.761956712215</v>
       </c>
       <c r="R14" t="n">
         <v>4346.865584219477</v>
@@ -5358,25 +5358,25 @@
         <v>222.5302849361145</v>
       </c>
       <c r="K15" t="n">
-        <v>532.4350978792628</v>
+        <v>222.5302849361145</v>
       </c>
       <c r="L15" t="n">
-        <v>995.4629046657981</v>
+        <v>685.5580917226498</v>
       </c>
       <c r="M15" t="n">
-        <v>1207.556030899924</v>
+        <v>1245.24657080408</v>
       </c>
       <c r="N15" t="n">
-        <v>1796.46644353334</v>
+        <v>1834.156983437497</v>
       </c>
       <c r="O15" t="n">
-        <v>2312.984622906309</v>
+        <v>2340.388692590862</v>
       </c>
       <c r="P15" t="n">
-        <v>2312.984622906309</v>
+        <v>2340.388692590862</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.258400146395</v>
+        <v>2554.662469830947</v>
       </c>
       <c r="R15" t="n">
         <v>2554.662469830947</v>
@@ -5419,16 +5419,16 @@
         <v>524.1371789369555</v>
       </c>
       <c r="E16" t="n">
-        <v>524.1371789369555</v>
+        <v>401.0815982223518</v>
       </c>
       <c r="F16" t="n">
-        <v>402.1047443068346</v>
+        <v>401.0815982223518</v>
       </c>
       <c r="G16" t="n">
-        <v>259.6389183189683</v>
+        <v>258.6157722344855</v>
       </c>
       <c r="H16" t="n">
-        <v>147.9929430717064</v>
+        <v>140.6301784900736</v>
       </c>
       <c r="I16" t="n">
         <v>86.93731168438954</v>
@@ -5440,7 +5440,7 @@
         <v>454.2827244468013</v>
       </c>
       <c r="L16" t="n">
-        <v>850.5035623898789</v>
+        <v>850.5035623898788</v>
       </c>
       <c r="M16" t="n">
         <v>1277.327645522233</v>
@@ -5492,67 +5492,67 @@
         <v>2164.940277420912</v>
       </c>
       <c r="C17" t="n">
-        <v>1820.835273348289</v>
+        <v>1820.83527334829</v>
       </c>
       <c r="D17" t="n">
-        <v>1487.427087609328</v>
+        <v>1487.427087609329</v>
       </c>
       <c r="E17" t="n">
         <v>1126.496347878874</v>
       </c>
       <c r="F17" t="n">
-        <v>740.3679559570555</v>
+        <v>740.367955957056</v>
       </c>
       <c r="G17" t="n">
         <v>350.9990438483574</v>
       </c>
       <c r="H17" t="n">
-        <v>86.93731168438954</v>
+        <v>86.93731168438956</v>
       </c>
       <c r="I17" t="n">
-        <v>86.93731168438954</v>
+        <v>86.93731168438956</v>
       </c>
       <c r="J17" t="n">
-        <v>346.1928460815238</v>
+        <v>346.1928460815232</v>
       </c>
       <c r="K17" t="n">
-        <v>785.4882053245033</v>
+        <v>785.488205324503</v>
       </c>
       <c r="L17" t="n">
         <v>1367.374705476215</v>
       </c>
       <c r="M17" t="n">
-        <v>2046.504991864532</v>
+        <v>2046.504991864533</v>
       </c>
       <c r="N17" t="n">
         <v>2741.238124674301</v>
       </c>
       <c r="O17" t="n">
-        <v>3383.919660426848</v>
+        <v>3383.919660426847</v>
       </c>
       <c r="P17" t="n">
-        <v>3897.932481369858</v>
+        <v>3897.932481369859</v>
       </c>
       <c r="Q17" t="n">
-        <v>4235.761956712215</v>
+        <v>4235.761956712216</v>
       </c>
       <c r="R17" t="n">
-        <v>4346.865584219477</v>
+        <v>4346.865584219478</v>
       </c>
       <c r="S17" t="n">
-        <v>4280.711227369791</v>
+        <v>4280.711227369792</v>
       </c>
       <c r="T17" t="n">
-        <v>4103.294467840756</v>
+        <v>4103.294467840757</v>
       </c>
       <c r="U17" t="n">
         <v>3874.689185996663</v>
       </c>
       <c r="V17" t="n">
-        <v>3568.483811520881</v>
+        <v>3568.483811520882</v>
       </c>
       <c r="W17" t="n">
-        <v>3240.572669118556</v>
+        <v>3240.572669118557</v>
       </c>
       <c r="X17" t="n">
         <v>2891.964423725266</v>
@@ -5586,25 +5586,25 @@
         <v>176.489601727604</v>
       </c>
       <c r="H18" t="n">
-        <v>90.35948261518013</v>
+        <v>90.35948261518014</v>
       </c>
       <c r="I18" t="n">
-        <v>86.93731168438954</v>
+        <v>86.93731168438956</v>
       </c>
       <c r="J18" t="n">
         <v>222.5302849361145</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1396146543194</v>
+        <v>222.5302849361145</v>
       </c>
       <c r="L18" t="n">
-        <v>769.1674214408547</v>
+        <v>252.649242067886</v>
       </c>
       <c r="M18" t="n">
-        <v>1328.855900522285</v>
+        <v>812.3377211493164</v>
       </c>
       <c r="N18" t="n">
-        <v>1917.766313155702</v>
+        <v>1401.248133782733</v>
       </c>
       <c r="O18" t="n">
         <v>1917.766313155702</v>
@@ -5653,22 +5653,22 @@
         <v>649.3963054815017</v>
       </c>
       <c r="D19" t="n">
-        <v>531.4999435185882</v>
+        <v>535.5467844042972</v>
       </c>
       <c r="E19" t="n">
-        <v>408.4443628039846</v>
+        <v>412.4912036896936</v>
       </c>
       <c r="F19" t="n">
-        <v>408.4443628039846</v>
+        <v>290.4587690595727</v>
       </c>
       <c r="G19" t="n">
-        <v>265.9785368161183</v>
+        <v>147.9929430717064</v>
       </c>
       <c r="H19" t="n">
         <v>147.9929430717064</v>
       </c>
       <c r="I19" t="n">
-        <v>86.93731168438954</v>
+        <v>86.93731168438956</v>
       </c>
       <c r="J19" t="n">
         <v>182.7193580085316</v>
@@ -5677,7 +5677,7 @@
         <v>454.2827244468013</v>
       </c>
       <c r="L19" t="n">
-        <v>850.5035623898789</v>
+        <v>850.5035623898788</v>
       </c>
       <c r="M19" t="n">
         <v>1277.327645522233</v>
@@ -5729,13 +5729,13 @@
         <v>2164.94027742091</v>
       </c>
       <c r="C20" t="n">
-        <v>1820.835273348288</v>
+        <v>1820.835273348289</v>
       </c>
       <c r="D20" t="n">
-        <v>1487.427087609327</v>
+        <v>1487.427087609328</v>
       </c>
       <c r="E20" t="n">
-        <v>1126.496347878872</v>
+        <v>1126.496347878874</v>
       </c>
       <c r="F20" t="n">
         <v>740.3679559570555</v>
@@ -5750,22 +5750,22 @@
         <v>86.93731168438951</v>
       </c>
       <c r="J20" t="n">
-        <v>346.1928460815238</v>
+        <v>346.1928460815232</v>
       </c>
       <c r="K20" t="n">
-        <v>785.4882053245042</v>
+        <v>785.4882053245029</v>
       </c>
       <c r="L20" t="n">
-        <v>1367.374705476216</v>
+        <v>1367.374705476215</v>
       </c>
       <c r="M20" t="n">
-        <v>2046.504991864533</v>
+        <v>2046.504991864532</v>
       </c>
       <c r="N20" t="n">
-        <v>2741.238124674301</v>
+        <v>2741.2381246743</v>
       </c>
       <c r="O20" t="n">
-        <v>3383.919660426848</v>
+        <v>3383.919660426847</v>
       </c>
       <c r="P20" t="n">
         <v>3897.932481369857</v>
@@ -5823,7 +5823,7 @@
         <v>176.489601727604</v>
       </c>
       <c r="H21" t="n">
-        <v>90.35948261518011</v>
+        <v>90.3594826151801</v>
       </c>
       <c r="I21" t="n">
         <v>86.93731168438951</v>
@@ -5832,25 +5832,25 @@
         <v>86.93731168438951</v>
       </c>
       <c r="K21" t="n">
-        <v>396.8421246275377</v>
+        <v>396.8421246275378</v>
       </c>
       <c r="L21" t="n">
-        <v>859.8699314140729</v>
+        <v>859.8699314140731</v>
       </c>
       <c r="M21" t="n">
         <v>1419.558410495503</v>
       </c>
       <c r="N21" t="n">
-        <v>2008.46882312892</v>
+        <v>1917.766313155702</v>
       </c>
       <c r="O21" t="n">
-        <v>2524.987002501888</v>
+        <v>1917.766313155702</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.662469830947</v>
+        <v>2312.984622906309</v>
       </c>
       <c r="Q21" t="n">
-        <v>2554.662469830947</v>
+        <v>2527.258400146395</v>
       </c>
       <c r="R21" t="n">
         <v>2554.662469830947</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>793.4749755416187</v>
+        <v>797.6110482088266</v>
       </c>
       <c r="C22" t="n">
-        <v>649.3963054815013</v>
+        <v>653.5323781487091</v>
       </c>
       <c r="D22" t="n">
-        <v>649.3963054815013</v>
+        <v>653.5323781487091</v>
       </c>
       <c r="E22" t="n">
-        <v>526.3407247668977</v>
+        <v>530.4767974341055</v>
       </c>
       <c r="F22" t="n">
         <v>408.4443628039846</v>
@@ -5902,7 +5902,7 @@
         <v>265.9785368161183</v>
       </c>
       <c r="H22" t="n">
-        <v>147.9929430717064</v>
+        <v>147.9929430717063</v>
       </c>
       <c r="I22" t="n">
         <v>86.93731168438951</v>
@@ -5923,10 +5923,10 @@
         <v>1700.016716458685</v>
       </c>
       <c r="O22" t="n">
-        <v>2076.282006821026</v>
+        <v>2076.282006821027</v>
       </c>
       <c r="P22" t="n">
-        <v>2378.237505110816</v>
+        <v>2378.237505110817</v>
       </c>
       <c r="Q22" t="n">
         <v>2511.356035373173</v>
@@ -5935,25 +5935,25 @@
         <v>2463.446690712731</v>
       </c>
       <c r="S22" t="n">
-        <v>2303.231930537997</v>
+        <v>2303.231930537998</v>
       </c>
       <c r="T22" t="n">
         <v>2107.94431844553</v>
       </c>
       <c r="U22" t="n">
-        <v>1843.719664317306</v>
+        <v>1843.719664317307</v>
       </c>
       <c r="V22" t="n">
         <v>1613.892688979209</v>
       </c>
       <c r="W22" t="n">
-        <v>1349.333031810037</v>
+        <v>1349.333031810038</v>
       </c>
       <c r="X22" t="n">
-        <v>1146.20099377981</v>
+        <v>1150.337066447017</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.2659275040689</v>
+        <v>954.4020001712768</v>
       </c>
     </row>
     <row r="23">
@@ -5981,37 +5981,37 @@
         <v>350.9990438483574</v>
       </c>
       <c r="H23" t="n">
-        <v>86.93731168438951</v>
+        <v>86.93731168438954</v>
       </c>
       <c r="I23" t="n">
-        <v>86.93731168438951</v>
+        <v>86.93731168438954</v>
       </c>
       <c r="J23" t="n">
-        <v>346.192846081523</v>
+        <v>346.1928460815234</v>
       </c>
       <c r="K23" t="n">
-        <v>785.4882053245028</v>
+        <v>785.4882053245042</v>
       </c>
       <c r="L23" t="n">
-        <v>1367.374705476216</v>
+        <v>1367.374705476217</v>
       </c>
       <c r="M23" t="n">
-        <v>2046.504991864533</v>
+        <v>2046.504991864534</v>
       </c>
       <c r="N23" t="n">
-        <v>2741.238124674301</v>
+        <v>2741.238124674303</v>
       </c>
       <c r="O23" t="n">
-        <v>3383.919660426847</v>
+        <v>3383.919660426849</v>
       </c>
       <c r="P23" t="n">
-        <v>3897.932481369857</v>
+        <v>3897.932481369859</v>
       </c>
       <c r="Q23" t="n">
-        <v>4235.761956712214</v>
+        <v>4235.761956712215</v>
       </c>
       <c r="R23" t="n">
-        <v>4346.865584219476</v>
+        <v>4346.865584219477</v>
       </c>
       <c r="S23" t="n">
         <v>4280.71122736979</v>
@@ -6060,34 +6060,34 @@
         <v>176.489601727604</v>
       </c>
       <c r="H24" t="n">
-        <v>90.35948261518011</v>
+        <v>90.35948261518013</v>
       </c>
       <c r="I24" t="n">
-        <v>86.93731168438951</v>
+        <v>86.93731168438954</v>
       </c>
       <c r="J24" t="n">
-        <v>86.93731168438951</v>
+        <v>86.93731168438954</v>
       </c>
       <c r="K24" t="n">
-        <v>396.8421246275377</v>
+        <v>396.8421246275378</v>
       </c>
       <c r="L24" t="n">
-        <v>859.8699314140729</v>
+        <v>859.8699314140731</v>
       </c>
       <c r="M24" t="n">
         <v>1419.558410495503</v>
       </c>
       <c r="N24" t="n">
-        <v>2008.46882312892</v>
+        <v>1419.558410495503</v>
       </c>
       <c r="O24" t="n">
-        <v>2524.987002501888</v>
+        <v>1917.766313155702</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.662469830947</v>
+        <v>2312.984622906309</v>
       </c>
       <c r="Q24" t="n">
-        <v>2554.662469830947</v>
+        <v>2527.258400146395</v>
       </c>
       <c r="R24" t="n">
         <v>2554.662469830947</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>793.4749755416187</v>
+        <v>793.4749755416192</v>
       </c>
       <c r="C25" t="n">
-        <v>649.3963054815013</v>
+        <v>649.3963054815017</v>
       </c>
       <c r="D25" t="n">
-        <v>649.3963054815013</v>
+        <v>524.1371789369555</v>
       </c>
       <c r="E25" t="n">
-        <v>530.4767974341055</v>
+        <v>408.4443628039846</v>
       </c>
       <c r="F25" t="n">
         <v>408.4443628039846</v>
@@ -6142,16 +6142,16 @@
         <v>147.9929430717064</v>
       </c>
       <c r="I25" t="n">
-        <v>86.93731168438951</v>
+        <v>86.93731168438954</v>
       </c>
       <c r="J25" t="n">
         <v>182.7193580085316</v>
       </c>
       <c r="K25" t="n">
-        <v>454.2827244468012</v>
+        <v>454.2827244468013</v>
       </c>
       <c r="L25" t="n">
-        <v>850.5035623898787</v>
+        <v>850.5035623898788</v>
       </c>
       <c r="M25" t="n">
         <v>1277.327645522233</v>
@@ -6160,10 +6160,10 @@
         <v>1700.016716458685</v>
       </c>
       <c r="O25" t="n">
-        <v>2076.282006821026</v>
+        <v>2076.282006821027</v>
       </c>
       <c r="P25" t="n">
-        <v>2378.237505110816</v>
+        <v>2378.237505110817</v>
       </c>
       <c r="Q25" t="n">
         <v>2511.356035373173</v>
@@ -6172,25 +6172,25 @@
         <v>2463.446690712731</v>
       </c>
       <c r="S25" t="n">
-        <v>2303.231930537997</v>
+        <v>2303.231930537998</v>
       </c>
       <c r="T25" t="n">
         <v>2107.94431844553</v>
       </c>
       <c r="U25" t="n">
-        <v>1843.719664317306</v>
+        <v>1843.719664317307</v>
       </c>
       <c r="V25" t="n">
         <v>1613.892688979209</v>
       </c>
       <c r="W25" t="n">
-        <v>1349.333031810037</v>
+        <v>1349.333031810038</v>
       </c>
       <c r="X25" t="n">
         <v>1146.20099377981</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.2659275040689</v>
+        <v>950.2659275040694</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2330.759453269261</v>
+        <v>2330.759453269259</v>
       </c>
       <c r="C26" t="n">
-        <v>1961.796936328849</v>
+        <v>1961.796936328848</v>
       </c>
       <c r="D26" t="n">
-        <v>1603.531237722099</v>
+        <v>1603.531237722098</v>
       </c>
       <c r="E26" t="n">
-        <v>1217.742985123855</v>
+        <v>1217.742985123853</v>
       </c>
       <c r="F26" t="n">
-        <v>806.7570803342473</v>
+        <v>806.757080334246</v>
       </c>
       <c r="G26" t="n">
-        <v>392.5306553577588</v>
+        <v>392.5306553577584</v>
       </c>
       <c r="H26" t="n">
         <v>103.6114103260016</v>
       </c>
       <c r="I26" t="n">
-        <v>94.23089726020281</v>
+        <v>94.23089726020282</v>
       </c>
       <c r="J26" t="n">
-        <v>520.8920806776894</v>
+        <v>353.4864316573364</v>
       </c>
       <c r="K26" t="n">
-        <v>960.187439920669</v>
+        <v>792.7817909003163</v>
       </c>
       <c r="L26" t="n">
-        <v>1542.073940072381</v>
+        <v>1374.668291052029</v>
       </c>
       <c r="M26" t="n">
-        <v>2221.204226460698</v>
+        <v>2053.798577440346</v>
       </c>
       <c r="N26" t="n">
-        <v>2915.937359270466</v>
+        <v>2748.531710250114</v>
       </c>
       <c r="O26" t="n">
-        <v>3558.618895023013</v>
+        <v>3391.21324600266</v>
       </c>
       <c r="P26" t="n">
-        <v>4072.631715966023</v>
+        <v>4197.552504486269</v>
       </c>
       <c r="Q26" t="n">
         <v>4535.381979828626</v>
       </c>
       <c r="R26" t="n">
-        <v>4711.54486301014</v>
+        <v>4711.544863010141</v>
       </c>
       <c r="S26" t="n">
         <v>4620.532993292665</v>
@@ -6257,19 +6257,19 @@
         <v>4418.25872089584</v>
       </c>
       <c r="U26" t="n">
-        <v>4164.795926183959</v>
+        <v>4164.795926183958</v>
       </c>
       <c r="V26" t="n">
-        <v>3833.733038840388</v>
+        <v>3833.733038840387</v>
       </c>
       <c r="W26" t="n">
-        <v>3480.964383570274</v>
+        <v>3480.964383570273</v>
       </c>
       <c r="X26" t="n">
-        <v>3107.498625309194</v>
+        <v>3107.498625309193</v>
       </c>
       <c r="Y26" t="n">
-        <v>2717.359293333383</v>
+        <v>2717.359293333381</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>97.65306819099341</v>
       </c>
       <c r="I27" t="n">
-        <v>94.23089726020281</v>
+        <v>94.23089726020282</v>
       </c>
       <c r="J27" t="n">
-        <v>229.8238705119277</v>
+        <v>94.23089726020282</v>
       </c>
       <c r="K27" t="n">
-        <v>539.728683455076</v>
+        <v>404.1357102033511</v>
       </c>
       <c r="L27" t="n">
-        <v>1002.756490241611</v>
+        <v>867.1635169898864</v>
       </c>
       <c r="M27" t="n">
-        <v>1002.756490241611</v>
+        <v>1426.851996071317</v>
       </c>
       <c r="N27" t="n">
-        <v>1408.541719358547</v>
+        <v>1426.851996071317</v>
       </c>
       <c r="O27" t="n">
-        <v>1925.059898731515</v>
+        <v>1943.370175444285</v>
       </c>
       <c r="P27" t="n">
         <v>2320.278208482122</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>645.4971133656938</v>
+        <v>411.6708755281944</v>
       </c>
       <c r="C28" t="n">
-        <v>645.4971133656938</v>
+        <v>411.6708755281944</v>
       </c>
       <c r="D28" t="n">
-        <v>495.3804739533581</v>
+        <v>261.5542361158587</v>
       </c>
       <c r="E28" t="n">
-        <v>347.467380370965</v>
+        <v>261.5542361158587</v>
       </c>
       <c r="F28" t="n">
-        <v>347.467380370965</v>
+        <v>261.5542361158587</v>
       </c>
       <c r="G28" t="n">
-        <v>180.1440415153091</v>
+        <v>94.23089726020282</v>
       </c>
       <c r="H28" t="n">
-        <v>180.1440415153091</v>
+        <v>94.23089726020282</v>
       </c>
       <c r="I28" t="n">
-        <v>94.23089726020281</v>
+        <v>94.23089726020282</v>
       </c>
       <c r="J28" t="n">
         <v>165.6500952226244</v>
@@ -6406,28 +6406,28 @@
         <v>2323.746834055223</v>
       </c>
       <c r="R28" t="n">
-        <v>2323.746834055223</v>
+        <v>2250.979976526991</v>
       </c>
       <c r="S28" t="n">
-        <v>2138.6745610127</v>
+        <v>2065.907703484469</v>
       </c>
       <c r="T28" t="n">
-        <v>1918.529436052443</v>
+        <v>1845.762578524212</v>
       </c>
       <c r="U28" t="n">
-        <v>1629.44726905643</v>
+        <v>1586.203128642829</v>
       </c>
       <c r="V28" t="n">
-        <v>1374.762780850543</v>
+        <v>1331.518640436942</v>
       </c>
       <c r="W28" t="n">
-        <v>1085.345610813582</v>
+        <v>1042.101470399982</v>
       </c>
       <c r="X28" t="n">
-        <v>857.3560599155649</v>
+        <v>814.1119195019643</v>
       </c>
       <c r="Y28" t="n">
-        <v>645.4971133656938</v>
+        <v>593.3193403584341</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2330.75945326926</v>
+        <v>2330.759453269259</v>
       </c>
       <c r="C29" t="n">
         <v>1961.796936328848</v>
@@ -6446,67 +6446,67 @@
         <v>1603.531237722098</v>
       </c>
       <c r="E29" t="n">
-        <v>1217.742985123854</v>
+        <v>1217.742985123853</v>
       </c>
       <c r="F29" t="n">
-        <v>806.7570803342469</v>
+        <v>806.757080334246</v>
       </c>
       <c r="G29" t="n">
-        <v>392.5306553577589</v>
+        <v>392.5306553577584</v>
       </c>
       <c r="H29" t="n">
-        <v>103.6114103260016</v>
+        <v>103.6114103260015</v>
       </c>
       <c r="I29" t="n">
         <v>94.23089726020282</v>
       </c>
       <c r="J29" t="n">
-        <v>520.8920806776894</v>
+        <v>353.4864316573364</v>
       </c>
       <c r="K29" t="n">
-        <v>960.187439920669</v>
+        <v>792.7817909003163</v>
       </c>
       <c r="L29" t="n">
-        <v>1542.073940072381</v>
+        <v>1374.668291052029</v>
       </c>
       <c r="M29" t="n">
-        <v>2221.204226460698</v>
+        <v>2200.992429901892</v>
       </c>
       <c r="N29" t="n">
-        <v>2915.937359270466</v>
+        <v>2895.725562711661</v>
       </c>
       <c r="O29" t="n">
-        <v>3558.618895023013</v>
+        <v>3538.407098464207</v>
       </c>
       <c r="P29" t="n">
-        <v>4072.631715966023</v>
+        <v>4052.419919407217</v>
       </c>
       <c r="Q29" t="n">
-        <v>4535.381979828627</v>
+        <v>4600.441235502879</v>
       </c>
       <c r="R29" t="n">
         <v>4711.544863010141</v>
       </c>
       <c r="S29" t="n">
-        <v>4620.532993292666</v>
+        <v>4620.532993292665</v>
       </c>
       <c r="T29" t="n">
-        <v>4418.258720895841</v>
+        <v>4418.25872089584</v>
       </c>
       <c r="U29" t="n">
-        <v>4164.795926183959</v>
+        <v>4164.795926183958</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.733038840388</v>
+        <v>3833.733038840387</v>
       </c>
       <c r="W29" t="n">
-        <v>3480.964383570274</v>
+        <v>3480.964383570273</v>
       </c>
       <c r="X29" t="n">
-        <v>3107.498625309194</v>
+        <v>3107.498625309193</v>
       </c>
       <c r="Y29" t="n">
-        <v>2717.359293333382</v>
+        <v>2717.359293333381</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>466.2281820665602</v>
       </c>
       <c r="F30" t="n">
-        <v>319.6936240934452</v>
+        <v>319.6936240934451</v>
       </c>
       <c r="G30" t="n">
         <v>183.7831873034173</v>
       </c>
       <c r="H30" t="n">
-        <v>97.65306819099342</v>
+        <v>97.65306819099341</v>
       </c>
       <c r="I30" t="n">
         <v>94.23089726020282</v>
       </c>
       <c r="J30" t="n">
-        <v>229.8238705119277</v>
+        <v>229.8238705119278</v>
       </c>
       <c r="K30" t="n">
-        <v>539.728683455076</v>
+        <v>356.6034999385943</v>
       </c>
       <c r="L30" t="n">
-        <v>1002.756490241611</v>
+        <v>819.6313067251297</v>
       </c>
       <c r="M30" t="n">
-        <v>1562.444969323042</v>
+        <v>819.6313067251297</v>
       </c>
       <c r="N30" t="n">
-        <v>2151.355381956458</v>
+        <v>1408.541719358546</v>
       </c>
       <c r="O30" t="n">
-        <v>2561.956055406761</v>
+        <v>1925.059898731515</v>
       </c>
       <c r="P30" t="n">
-        <v>2561.956055406761</v>
+        <v>2320.278208482122</v>
       </c>
       <c r="Q30" t="n">
-        <v>2561.956055406761</v>
+        <v>2534.551985722208</v>
       </c>
       <c r="R30" t="n">
         <v>2561.956055406761</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>577.3803665416759</v>
+        <v>563.7966232438033</v>
       </c>
       <c r="C31" t="n">
-        <v>408.444183613769</v>
+        <v>563.7966232438033</v>
       </c>
       <c r="D31" t="n">
-        <v>408.444183613769</v>
+        <v>413.6799838314676</v>
       </c>
       <c r="E31" t="n">
-        <v>408.444183613769</v>
+        <v>265.7668902490744</v>
       </c>
       <c r="F31" t="n">
-        <v>261.5542361158587</v>
+        <v>180.1440415153091</v>
       </c>
       <c r="G31" t="n">
-        <v>94.23089726020282</v>
+        <v>180.1440415153091</v>
       </c>
       <c r="H31" t="n">
-        <v>94.23089726020282</v>
+        <v>180.1440415153091</v>
       </c>
       <c r="I31" t="n">
         <v>94.23089726020282</v>
@@ -6643,28 +6643,28 @@
         <v>2323.746834055223</v>
       </c>
       <c r="R31" t="n">
-        <v>2323.746834055223</v>
+        <v>2250.979976526991</v>
       </c>
       <c r="S31" t="n">
-        <v>2261.139911612581</v>
+        <v>2065.907703484469</v>
       </c>
       <c r="T31" t="n">
-        <v>2040.994786652324</v>
+        <v>1845.762578524212</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.912619656311</v>
+        <v>1556.680411528198</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.228131450424</v>
+        <v>1301.995923322311</v>
       </c>
       <c r="W31" t="n">
-        <v>1207.810961413463</v>
+        <v>1012.578753285351</v>
       </c>
       <c r="X31" t="n">
-        <v>979.8214105154458</v>
+        <v>784.5892023873334</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.0288313719157</v>
+        <v>563.7966232438033</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2164.940277420911</v>
+        <v>2164.940277420912</v>
       </c>
       <c r="C32" t="n">
-        <v>1820.835273348289</v>
+        <v>1820.83527334829</v>
       </c>
       <c r="D32" t="n">
-        <v>1487.427087609328</v>
+        <v>1487.427087609329</v>
       </c>
       <c r="E32" t="n">
         <v>1126.496347878874</v>
       </c>
       <c r="F32" t="n">
-        <v>740.3679559570555</v>
+        <v>740.367955957056</v>
       </c>
       <c r="G32" t="n">
-        <v>350.9990438483572</v>
+        <v>350.9990438483575</v>
       </c>
       <c r="H32" t="n">
-        <v>86.9373116843895</v>
+        <v>86.93731168438954</v>
       </c>
       <c r="I32" t="n">
-        <v>86.9373116843895</v>
+        <v>86.93731168438954</v>
       </c>
       <c r="J32" t="n">
-        <v>346.192846081523</v>
+        <v>346.1928460815234</v>
       </c>
       <c r="K32" t="n">
-        <v>785.4882053245028</v>
+        <v>785.4882053245042</v>
       </c>
       <c r="L32" t="n">
-        <v>1367.374705476215</v>
+        <v>1367.374705476217</v>
       </c>
       <c r="M32" t="n">
-        <v>2046.504991864532</v>
+        <v>2046.504991864534</v>
       </c>
       <c r="N32" t="n">
-        <v>2741.2381246743</v>
+        <v>2741.238124674303</v>
       </c>
       <c r="O32" t="n">
-        <v>3383.919660426846</v>
+        <v>3383.919660426849</v>
       </c>
       <c r="P32" t="n">
-        <v>3897.932481369856</v>
+        <v>3897.932481369859</v>
       </c>
       <c r="Q32" t="n">
-        <v>4235.761956712213</v>
+        <v>4235.761956712215</v>
       </c>
       <c r="R32" t="n">
-        <v>4346.865584219475</v>
+        <v>4346.865584219477</v>
       </c>
       <c r="S32" t="n">
-        <v>4280.71122736979</v>
+        <v>4280.711227369791</v>
       </c>
       <c r="T32" t="n">
-        <v>4103.294467840755</v>
+        <v>4103.294467840756</v>
       </c>
       <c r="U32" t="n">
-        <v>3874.689185996661</v>
+        <v>3874.689185996664</v>
       </c>
       <c r="V32" t="n">
-        <v>3568.48381152088</v>
+        <v>3568.483811520882</v>
       </c>
       <c r="W32" t="n">
-        <v>3240.572669118555</v>
+        <v>3240.572669118557</v>
       </c>
       <c r="X32" t="n">
-        <v>2891.964423725265</v>
+        <v>2891.964423725267</v>
       </c>
       <c r="Y32" t="n">
-        <v>2526.682604617243</v>
+        <v>2526.682604617245</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.489601727604</v>
       </c>
       <c r="H33" t="n">
-        <v>90.3594826151801</v>
+        <v>90.35948261518013</v>
       </c>
       <c r="I33" t="n">
-        <v>86.9373116843895</v>
+        <v>86.93731168438954</v>
       </c>
       <c r="J33" t="n">
-        <v>222.5302849361144</v>
+        <v>222.5302849361145</v>
       </c>
       <c r="K33" t="n">
-        <v>532.4350978792627</v>
+        <v>532.4350978792628</v>
       </c>
       <c r="L33" t="n">
-        <v>995.4629046657979</v>
+        <v>995.4629046657981</v>
       </c>
       <c r="M33" t="n">
-        <v>1555.151383747228</v>
+        <v>1328.855900522285</v>
       </c>
       <c r="N33" t="n">
-        <v>2144.061796380645</v>
+        <v>1917.766313155702</v>
       </c>
       <c r="O33" t="n">
-        <v>2554.662469830947</v>
+        <v>1917.766313155702</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.662469830947</v>
+        <v>2312.984622906309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2554.662469830947</v>
+        <v>2527.258400146395</v>
       </c>
       <c r="R33" t="n">
         <v>2554.662469830947</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>793.474975541621</v>
+        <v>793.4749755416183</v>
       </c>
       <c r="C34" t="n">
-        <v>649.3963054815036</v>
+        <v>649.3963054815008</v>
       </c>
       <c r="D34" t="n">
-        <v>649.3963054815036</v>
+        <v>524.1371789369545</v>
       </c>
       <c r="E34" t="n">
-        <v>530.4767974341049</v>
+        <v>401.0815982223507</v>
       </c>
       <c r="F34" t="n">
-        <v>408.4443628039842</v>
+        <v>290.4587690595728</v>
       </c>
       <c r="G34" t="n">
-        <v>265.978536816118</v>
+        <v>147.9929430717065</v>
       </c>
       <c r="H34" t="n">
-        <v>147.9929430717062</v>
+        <v>147.9929430717065</v>
       </c>
       <c r="I34" t="n">
-        <v>86.9373116843895</v>
+        <v>86.93731168438954</v>
       </c>
       <c r="J34" t="n">
-        <v>182.7193580085317</v>
+        <v>182.7193580085316</v>
       </c>
       <c r="K34" t="n">
-        <v>454.2827244468015</v>
+        <v>454.2827244468012</v>
       </c>
       <c r="L34" t="n">
-        <v>850.5035623898791</v>
+        <v>850.5035623898787</v>
       </c>
       <c r="M34" t="n">
         <v>1277.327645522233</v>
@@ -6871,37 +6871,37 @@
         <v>1700.016716458685</v>
       </c>
       <c r="O34" t="n">
-        <v>2076.282006821027</v>
+        <v>2076.282006821026</v>
       </c>
       <c r="P34" t="n">
-        <v>2378.237505110817</v>
+        <v>2378.237505110816</v>
       </c>
       <c r="Q34" t="n">
-        <v>2511.356035373174</v>
+        <v>2511.356035373173</v>
       </c>
       <c r="R34" t="n">
-        <v>2463.446690712732</v>
+        <v>2463.446690712731</v>
       </c>
       <c r="S34" t="n">
-        <v>2303.231930537999</v>
+        <v>2303.231930537997</v>
       </c>
       <c r="T34" t="n">
-        <v>2107.944318445531</v>
+        <v>2107.94431844553</v>
       </c>
       <c r="U34" t="n">
-        <v>1843.719664317308</v>
+        <v>1843.719664317306</v>
       </c>
       <c r="V34" t="n">
-        <v>1613.89268897921</v>
+        <v>1613.892688979209</v>
       </c>
       <c r="W34" t="n">
-        <v>1349.333031810039</v>
+        <v>1349.333031810037</v>
       </c>
       <c r="X34" t="n">
-        <v>1146.200993779812</v>
+        <v>1146.200993779809</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.2659275040711</v>
+        <v>950.2659275040686</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1126.496347878875</v>
       </c>
       <c r="F35" t="n">
-        <v>740.3679559570569</v>
+        <v>740.3679559570568</v>
       </c>
       <c r="G35" t="n">
         <v>350.9990438483572</v>
@@ -6935,10 +6935,10 @@
         <v>86.93731168438951</v>
       </c>
       <c r="J35" t="n">
-        <v>346.192846081523</v>
+        <v>346.1928460815232</v>
       </c>
       <c r="K35" t="n">
-        <v>785.4882053245028</v>
+        <v>785.4882053245029</v>
       </c>
       <c r="L35" t="n">
         <v>1367.374705476215</v>
@@ -6947,16 +6947,16 @@
         <v>2046.504991864532</v>
       </c>
       <c r="N35" t="n">
-        <v>2741.2381246743</v>
+        <v>2741.238124674301</v>
       </c>
       <c r="O35" t="n">
-        <v>3383.919660426846</v>
+        <v>3383.919660426847</v>
       </c>
       <c r="P35" t="n">
-        <v>3897.932481369856</v>
+        <v>3897.932481369857</v>
       </c>
       <c r="Q35" t="n">
-        <v>4235.761956712213</v>
+        <v>4235.761956712214</v>
       </c>
       <c r="R35" t="n">
         <v>4346.865584219476</v>
@@ -6965,13 +6965,13 @@
         <v>4280.71122736979</v>
       </c>
       <c r="T35" t="n">
-        <v>4103.294467840756</v>
+        <v>4103.294467840755</v>
       </c>
       <c r="U35" t="n">
-        <v>3874.689185996663</v>
+        <v>3874.689185996662</v>
       </c>
       <c r="V35" t="n">
-        <v>3568.483811520882</v>
+        <v>3568.483811520881</v>
       </c>
       <c r="W35" t="n">
         <v>3240.572669118557</v>
@@ -7008,34 +7008,34 @@
         <v>176.489601727604</v>
       </c>
       <c r="H36" t="n">
-        <v>90.35948261518011</v>
+        <v>90.3594826151801</v>
       </c>
       <c r="I36" t="n">
         <v>86.93731168438951</v>
       </c>
       <c r="J36" t="n">
-        <v>86.93731168438951</v>
+        <v>222.5302849361145</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93731168438951</v>
+        <v>532.4350978792627</v>
       </c>
       <c r="L36" t="n">
-        <v>549.9651184709247</v>
+        <v>769.1674214408547</v>
       </c>
       <c r="M36" t="n">
-        <v>1109.653597552355</v>
+        <v>1328.855900522285</v>
       </c>
       <c r="N36" t="n">
-        <v>1698.564010185772</v>
+        <v>1917.766313155702</v>
       </c>
       <c r="O36" t="n">
-        <v>2215.082189558741</v>
+        <v>1917.766313155702</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.662469830947</v>
+        <v>2312.984622906309</v>
       </c>
       <c r="Q36" t="n">
-        <v>2554.662469830947</v>
+        <v>2527.258400146395</v>
       </c>
       <c r="R36" t="n">
         <v>2554.662469830947</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>793.474975541621</v>
+        <v>793.4749755416212</v>
       </c>
       <c r="C37" t="n">
-        <v>649.3963054815036</v>
+        <v>655.7359239786512</v>
       </c>
       <c r="D37" t="n">
-        <v>524.1371789369575</v>
+        <v>530.476797434105</v>
       </c>
       <c r="E37" t="n">
-        <v>401.081598222354</v>
+        <v>530.476797434105</v>
       </c>
       <c r="F37" t="n">
-        <v>279.0491635922333</v>
+        <v>408.4443628039843</v>
       </c>
       <c r="G37" t="n">
-        <v>136.5833376043671</v>
+        <v>265.9785368161181</v>
       </c>
       <c r="H37" t="n">
-        <v>136.5833376043671</v>
+        <v>147.9929430717063</v>
       </c>
       <c r="I37" t="n">
         <v>86.93731168438951</v>
@@ -7102,43 +7102,43 @@
         <v>850.5035623898791</v>
       </c>
       <c r="M37" t="n">
-        <v>1277.327645522233</v>
+        <v>1277.327645522234</v>
       </c>
       <c r="N37" t="n">
-        <v>1700.016716458685</v>
+        <v>1700.016716458686</v>
       </c>
       <c r="O37" t="n">
-        <v>2076.282006821027</v>
+        <v>2076.282006821028</v>
       </c>
       <c r="P37" t="n">
         <v>2378.237505110817</v>
       </c>
       <c r="Q37" t="n">
-        <v>2511.356035373174</v>
+        <v>2511.356035373175</v>
       </c>
       <c r="R37" t="n">
-        <v>2463.446690712732</v>
+        <v>2463.446690712733</v>
       </c>
       <c r="S37" t="n">
         <v>2303.231930537999</v>
       </c>
       <c r="T37" t="n">
-        <v>2107.944318445531</v>
+        <v>2107.944318445532</v>
       </c>
       <c r="U37" t="n">
         <v>1843.719664317308</v>
       </c>
       <c r="V37" t="n">
-        <v>1613.89268897921</v>
+        <v>1613.892688979211</v>
       </c>
       <c r="W37" t="n">
-        <v>1349.333031810039</v>
+        <v>1349.33303181004</v>
       </c>
       <c r="X37" t="n">
         <v>1146.200993779812</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.2659275040711</v>
+        <v>950.2659275040714</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2164.940277420912</v>
+        <v>2164.940277420911</v>
       </c>
       <c r="C38" t="n">
         <v>1820.835273348289</v>
@@ -7157,10 +7157,10 @@
         <v>1487.427087609328</v>
       </c>
       <c r="E38" t="n">
-        <v>1126.496347878874</v>
+        <v>1126.496347878873</v>
       </c>
       <c r="F38" t="n">
-        <v>740.3679559570554</v>
+        <v>740.3679559570551</v>
       </c>
       <c r="G38" t="n">
         <v>350.9990438483573</v>
@@ -7172,19 +7172,19 @@
         <v>86.93731168438951</v>
       </c>
       <c r="J38" t="n">
-        <v>346.1928460815229</v>
+        <v>346.1928460815231</v>
       </c>
       <c r="K38" t="n">
-        <v>785.4882053245026</v>
+        <v>785.4882053245029</v>
       </c>
       <c r="L38" t="n">
         <v>1367.374705476215</v>
       </c>
       <c r="M38" t="n">
-        <v>2046.504991864532</v>
+        <v>2046.504991864533</v>
       </c>
       <c r="N38" t="n">
-        <v>2741.2381246743</v>
+        <v>2741.238124674301</v>
       </c>
       <c r="O38" t="n">
         <v>3383.919660426847</v>
@@ -7199,16 +7199,16 @@
         <v>4346.865584219476</v>
       </c>
       <c r="S38" t="n">
-        <v>4280.71122736979</v>
+        <v>4280.711227369789</v>
       </c>
       <c r="T38" t="n">
-        <v>4103.294467840755</v>
+        <v>4103.294467840754</v>
       </c>
       <c r="U38" t="n">
         <v>3874.689185996662</v>
       </c>
       <c r="V38" t="n">
-        <v>3568.483811520881</v>
+        <v>3568.48381152088</v>
       </c>
       <c r="W38" t="n">
         <v>3240.572669118556</v>
@@ -7217,7 +7217,7 @@
         <v>2891.964423725266</v>
       </c>
       <c r="Y38" t="n">
-        <v>2526.682604617244</v>
+        <v>2526.682604617243</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.489601727604</v>
       </c>
       <c r="H39" t="n">
-        <v>90.35948261518011</v>
+        <v>90.3594826151801</v>
       </c>
       <c r="I39" t="n">
         <v>86.93731168438951</v>
       </c>
       <c r="J39" t="n">
-        <v>222.5302849361144</v>
+        <v>86.93731168438951</v>
       </c>
       <c r="K39" t="n">
-        <v>532.4350978792627</v>
+        <v>396.8421246275378</v>
       </c>
       <c r="L39" t="n">
-        <v>995.4629046657979</v>
+        <v>859.8699314140731</v>
       </c>
       <c r="M39" t="n">
-        <v>1555.151383747228</v>
+        <v>1328.855900522285</v>
       </c>
       <c r="N39" t="n">
-        <v>2144.061796380645</v>
+        <v>1917.766313155702</v>
       </c>
       <c r="O39" t="n">
-        <v>2554.662469830947</v>
+        <v>1917.766313155702</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.662469830947</v>
+        <v>2312.984622906309</v>
       </c>
       <c r="Q39" t="n">
-        <v>2554.662469830947</v>
+        <v>2527.258400146395</v>
       </c>
       <c r="R39" t="n">
         <v>2554.662469830947</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>793.4749755416199</v>
+        <v>793.4749755416203</v>
       </c>
       <c r="C40" t="n">
-        <v>649.3963054815025</v>
+        <v>649.396305481503</v>
       </c>
       <c r="D40" t="n">
-        <v>524.1371789369564</v>
+        <v>530.4767974341053</v>
       </c>
       <c r="E40" t="n">
-        <v>401.0815982223528</v>
+        <v>530.4767974341053</v>
       </c>
       <c r="F40" t="n">
-        <v>279.049163592232</v>
+        <v>408.4443628039844</v>
       </c>
       <c r="G40" t="n">
-        <v>136.5833376043657</v>
+        <v>265.9785368161182</v>
       </c>
       <c r="H40" t="n">
-        <v>136.5833376043657</v>
+        <v>147.9929430717063</v>
       </c>
       <c r="I40" t="n">
         <v>86.93731168438951</v>
       </c>
       <c r="J40" t="n">
-        <v>182.7193580085316</v>
+        <v>182.7193580085317</v>
       </c>
       <c r="K40" t="n">
-        <v>454.2827244468014</v>
+        <v>454.2827244468015</v>
       </c>
       <c r="L40" t="n">
-        <v>850.5035623898789</v>
+        <v>850.503562389879</v>
       </c>
       <c r="M40" t="n">
         <v>1277.327645522233</v>
@@ -7351,31 +7351,31 @@
         <v>2378.237505110817</v>
       </c>
       <c r="Q40" t="n">
-        <v>2511.356035373173</v>
+        <v>2511.356035373174</v>
       </c>
       <c r="R40" t="n">
-        <v>2463.446690712731</v>
+        <v>2463.446690712732</v>
       </c>
       <c r="S40" t="n">
         <v>2303.231930537998</v>
       </c>
       <c r="T40" t="n">
-        <v>2107.94431844553</v>
+        <v>2107.944318445531</v>
       </c>
       <c r="U40" t="n">
         <v>1843.719664317307</v>
       </c>
       <c r="V40" t="n">
-        <v>1613.892688979209</v>
+        <v>1613.89268897921</v>
       </c>
       <c r="W40" t="n">
-        <v>1349.333031810038</v>
+        <v>1349.333031810039</v>
       </c>
       <c r="X40" t="n">
         <v>1146.200993779811</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.2659275040701</v>
+        <v>950.2659275040705</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2164.940277420911</v>
+        <v>2164.940277420912</v>
       </c>
       <c r="C41" t="n">
-        <v>1820.835273348289</v>
+        <v>1820.83527334829</v>
       </c>
       <c r="D41" t="n">
-        <v>1487.427087609328</v>
+        <v>1487.427087609329</v>
       </c>
       <c r="E41" t="n">
-        <v>1126.496347878873</v>
+        <v>1126.496347878874</v>
       </c>
       <c r="F41" t="n">
-        <v>740.3679559570555</v>
+        <v>740.367955957056</v>
       </c>
       <c r="G41" t="n">
-        <v>350.9990438483574</v>
+        <v>350.9990438483573</v>
       </c>
       <c r="H41" t="n">
         <v>86.93731168438951</v>
@@ -7409,13 +7409,13 @@
         <v>86.93731168438951</v>
       </c>
       <c r="J41" t="n">
-        <v>346.1928460815238</v>
+        <v>346.1928460815231</v>
       </c>
       <c r="K41" t="n">
-        <v>785.4882053245035</v>
+        <v>785.4882053245029</v>
       </c>
       <c r="L41" t="n">
-        <v>1367.374705476216</v>
+        <v>1367.374705476215</v>
       </c>
       <c r="M41" t="n">
         <v>2046.504991864533</v>
@@ -7442,13 +7442,13 @@
         <v>4103.294467840755</v>
       </c>
       <c r="U41" t="n">
-        <v>3874.689185996662</v>
+        <v>3874.689185996663</v>
       </c>
       <c r="V41" t="n">
         <v>3568.483811520881</v>
       </c>
       <c r="W41" t="n">
-        <v>3240.572669118556</v>
+        <v>3240.572669118557</v>
       </c>
       <c r="X41" t="n">
         <v>2891.964423725266</v>
@@ -7482,7 +7482,7 @@
         <v>176.489601727604</v>
       </c>
       <c r="H42" t="n">
-        <v>90.35948261518011</v>
+        <v>90.3594826151801</v>
       </c>
       <c r="I42" t="n">
         <v>86.93731168438951</v>
@@ -7491,22 +7491,22 @@
         <v>86.93731168438951</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93731168438951</v>
+        <v>396.8421246275378</v>
       </c>
       <c r="L42" t="n">
-        <v>252.6492420678863</v>
+        <v>466.9230193079711</v>
       </c>
       <c r="M42" t="n">
-        <v>812.3377211493167</v>
+        <v>1026.611498389402</v>
       </c>
       <c r="N42" t="n">
-        <v>1401.248133782733</v>
+        <v>1615.521911022818</v>
       </c>
       <c r="O42" t="n">
-        <v>1917.766313155702</v>
+        <v>2132.040090395787</v>
       </c>
       <c r="P42" t="n">
-        <v>2312.984622906309</v>
+        <v>2527.258400146395</v>
       </c>
       <c r="Q42" t="n">
         <v>2527.258400146395</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>793.4749755416187</v>
+        <v>793.4749755416201</v>
       </c>
       <c r="C43" t="n">
-        <v>649.3963054815013</v>
+        <v>649.3963054815026</v>
       </c>
       <c r="D43" t="n">
-        <v>592.4767467613922</v>
+        <v>524.1371789369564</v>
       </c>
       <c r="E43" t="n">
-        <v>469.4211660467886</v>
+        <v>401.0815982223528</v>
       </c>
       <c r="F43" t="n">
-        <v>347.3887314166677</v>
+        <v>401.0815982223528</v>
       </c>
       <c r="G43" t="n">
-        <v>204.9229054288014</v>
+        <v>258.6157722344865</v>
       </c>
       <c r="H43" t="n">
-        <v>86.93731168438951</v>
+        <v>147.9929430717063</v>
       </c>
       <c r="I43" t="n">
         <v>86.93731168438951</v>
@@ -7570,10 +7570,10 @@
         <v>182.7193580085316</v>
       </c>
       <c r="K43" t="n">
-        <v>454.2827244468012</v>
+        <v>454.2827244468014</v>
       </c>
       <c r="L43" t="n">
-        <v>850.5035623898787</v>
+        <v>850.5035623898789</v>
       </c>
       <c r="M43" t="n">
         <v>1277.327645522233</v>
@@ -7582,37 +7582,37 @@
         <v>1700.016716458685</v>
       </c>
       <c r="O43" t="n">
-        <v>2076.282006821026</v>
+        <v>2076.282006821027</v>
       </c>
       <c r="P43" t="n">
-        <v>2378.237505110816</v>
+        <v>2378.237505110817</v>
       </c>
       <c r="Q43" t="n">
-        <v>2511.356035373173</v>
+        <v>2511.356035373174</v>
       </c>
       <c r="R43" t="n">
-        <v>2463.446690712731</v>
+        <v>2463.446690712732</v>
       </c>
       <c r="S43" t="n">
-        <v>2303.231930537997</v>
+        <v>2303.231930537998</v>
       </c>
       <c r="T43" t="n">
-        <v>2107.94431844553</v>
+        <v>2107.944318445531</v>
       </c>
       <c r="U43" t="n">
-        <v>1843.719664317306</v>
+        <v>1843.719664317307</v>
       </c>
       <c r="V43" t="n">
-        <v>1613.892688979209</v>
+        <v>1613.89268897921</v>
       </c>
       <c r="W43" t="n">
-        <v>1349.333031810037</v>
+        <v>1349.333031810039</v>
       </c>
       <c r="X43" t="n">
-        <v>1146.20099377981</v>
+        <v>1146.200993779811</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.2659275040689</v>
+        <v>950.2659275040703</v>
       </c>
     </row>
     <row r="44">
@@ -7631,7 +7631,7 @@
         <v>1487.427087609329</v>
       </c>
       <c r="E44" t="n">
-        <v>1126.496347878875</v>
+        <v>1126.496347878874</v>
       </c>
       <c r="F44" t="n">
         <v>740.3679559570564</v>
@@ -7646,28 +7646,28 @@
         <v>86.93731168438954</v>
       </c>
       <c r="J44" t="n">
-        <v>346.1928460815231</v>
+        <v>346.1928460815234</v>
       </c>
       <c r="K44" t="n">
-        <v>785.4882053245028</v>
+        <v>785.4882053245033</v>
       </c>
       <c r="L44" t="n">
-        <v>1367.374705476215</v>
+        <v>1367.374705476216</v>
       </c>
       <c r="M44" t="n">
-        <v>2046.504991864532</v>
+        <v>2046.504991864533</v>
       </c>
       <c r="N44" t="n">
-        <v>2741.2381246743</v>
+        <v>2741.238124674302</v>
       </c>
       <c r="O44" t="n">
-        <v>3383.919660426846</v>
+        <v>3383.919660426848</v>
       </c>
       <c r="P44" t="n">
-        <v>3897.932481369856</v>
+        <v>3897.932481369857</v>
       </c>
       <c r="Q44" t="n">
-        <v>4235.761956712213</v>
+        <v>4235.761956712215</v>
       </c>
       <c r="R44" t="n">
         <v>4346.865584219477</v>
@@ -7679,7 +7679,7 @@
         <v>4103.294467840756</v>
       </c>
       <c r="U44" t="n">
-        <v>3874.689185996664</v>
+        <v>3874.689185996663</v>
       </c>
       <c r="V44" t="n">
         <v>3568.483811520882</v>
@@ -7691,7 +7691,7 @@
         <v>2891.964423725267</v>
       </c>
       <c r="Y44" t="n">
-        <v>2526.682604617245</v>
+        <v>2526.682604617244</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>176.489601727604</v>
       </c>
       <c r="H45" t="n">
-        <v>90.35948261518014</v>
+        <v>90.35948261518013</v>
       </c>
       <c r="I45" t="n">
         <v>86.93731168438954</v>
@@ -7728,22 +7728,22 @@
         <v>86.93731168438954</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93731168438954</v>
+        <v>396.8421246275378</v>
       </c>
       <c r="L45" t="n">
-        <v>252.6492420678863</v>
+        <v>859.8699314140731</v>
       </c>
       <c r="M45" t="n">
-        <v>812.3377211493167</v>
+        <v>1419.558410495503</v>
       </c>
       <c r="N45" t="n">
-        <v>1401.248133782733</v>
+        <v>1615.521911022818</v>
       </c>
       <c r="O45" t="n">
-        <v>1917.766313155702</v>
+        <v>2132.040090395787</v>
       </c>
       <c r="P45" t="n">
-        <v>2312.984622906309</v>
+        <v>2527.258400146395</v>
       </c>
       <c r="Q45" t="n">
         <v>2527.258400146395</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>793.4749755416187</v>
+        <v>793.4749755416201</v>
       </c>
       <c r="C46" t="n">
-        <v>649.3963054815013</v>
+        <v>649.3963054815026</v>
       </c>
       <c r="D46" t="n">
-        <v>524.137178936955</v>
+        <v>524.1371789369564</v>
       </c>
       <c r="E46" t="n">
-        <v>401.0815982223514</v>
+        <v>401.0815982223528</v>
       </c>
       <c r="F46" t="n">
-        <v>279.0491635922305</v>
+        <v>279.0491635922319</v>
       </c>
       <c r="G46" t="n">
-        <v>136.5833376043642</v>
+        <v>147.9929430717063</v>
       </c>
       <c r="H46" t="n">
-        <v>136.5833376043642</v>
+        <v>147.9929430717063</v>
       </c>
       <c r="I46" t="n">
         <v>86.93731168438954</v>
       </c>
       <c r="J46" t="n">
-        <v>182.7193580085316</v>
+        <v>182.7193580085317</v>
       </c>
       <c r="K46" t="n">
-        <v>454.2827244468012</v>
+        <v>454.2827244468014</v>
       </c>
       <c r="L46" t="n">
-        <v>850.5035623898787</v>
+        <v>850.5035623898789</v>
       </c>
       <c r="M46" t="n">
         <v>1277.327645522233</v>
@@ -7819,37 +7819,37 @@
         <v>1700.016716458685</v>
       </c>
       <c r="O46" t="n">
-        <v>2076.282006821026</v>
+        <v>2076.282006821027</v>
       </c>
       <c r="P46" t="n">
-        <v>2378.237505110816</v>
+        <v>2378.237505110817</v>
       </c>
       <c r="Q46" t="n">
-        <v>2511.356035373173</v>
+        <v>2511.356035373174</v>
       </c>
       <c r="R46" t="n">
-        <v>2463.446690712731</v>
+        <v>2463.446690712732</v>
       </c>
       <c r="S46" t="n">
-        <v>2303.231930537997</v>
+        <v>2303.231930537998</v>
       </c>
       <c r="T46" t="n">
-        <v>2107.94431844553</v>
+        <v>2107.944318445531</v>
       </c>
       <c r="U46" t="n">
-        <v>1843.719664317306</v>
+        <v>1843.719664317307</v>
       </c>
       <c r="V46" t="n">
-        <v>1613.892688979209</v>
+        <v>1613.89268897921</v>
       </c>
       <c r="W46" t="n">
-        <v>1349.333031810037</v>
+        <v>1349.333031810039</v>
       </c>
       <c r="X46" t="n">
-        <v>1146.20099377981</v>
+        <v>1146.200993779811</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.2659275040689</v>
+        <v>950.2659275040703</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>132.3073665384821</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
         <v>392.8337743093848</v>
@@ -8070,7 +8070,7 @@
         <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>237.7646974507862</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,16 +8301,16 @@
         <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>253.7986983548371</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>166.6871829098017</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>295.2792298389887</v>
       </c>
       <c r="Q26" t="n">
-        <v>126.1826146669159</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>148.6806590520669</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>126.1826146669168</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.8250249074576</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>128.1012472196361</v>
       </c>
       <c r="H13" t="n">
-        <v>6.276222312178504</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8250249074576</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.8121102838197</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6.276222312178504</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7.289136935816458</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.28913693581643</v>
+        <v>11.29550941266834</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>120.8121102838197</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>116.8057378069678</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>4.094711940535774</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>4.094711940535234</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>124.0065352791008</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>4.094711940535788</v>
+        <v>7.289136935816458</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>120.8121102838197</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>141.4146755460794</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.05401281255526</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>72.03918895294915</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>29.22748994348461</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.844296267722513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>60.65442777650361</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6501054670992</v>
       </c>
       <c r="H31" t="n">
         <v>141.4146755460794</v>
       </c>
       <c r="I31" t="n">
-        <v>85.05401281255527</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>72.03918895294915</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>121.2406970938825</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.0065352791006</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>4.094711940532733</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>11.2955094126696</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>116.8057378069678</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>6.276222312175804</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>121.8250249074575</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.8057378069676</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>11.29550941266571</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>6.276222312176998</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>121.8250249074575</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.8057378069677</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>11.29550941266717</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>67.65617214619279</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>120.8121102838196</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>7.289136935815435</v>
       </c>
       <c r="I43" t="n">
-        <v>60.44507507344369</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>11.29550941266729</v>
       </c>
       <c r="H46" t="n">
         <v>116.8057378069678</v>
       </c>
       <c r="I46" t="n">
-        <v>11.29550941266878</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619574.9445983823</v>
+        <v>619574.9445983825</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>619574.9445983825</v>
+        <v>619574.9445983823</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619574.9445983823</v>
+        <v>619574.9445983825</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>821041.7698642828</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642827</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642829</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="E2" t="n">
-        <v>817967.3399310131</v>
+        <v>817967.3399310128</v>
       </c>
       <c r="F2" t="n">
-        <v>817967.3399310128</v>
+        <v>817967.3399310129</v>
       </c>
       <c r="G2" t="n">
         <v>817967.3399310128</v>
       </c>
       <c r="H2" t="n">
-        <v>817967.3399310128</v>
+        <v>817967.3399310127</v>
       </c>
       <c r="I2" t="n">
-        <v>817967.3399310129</v>
+        <v>817967.3399310126</v>
       </c>
       <c r="J2" t="n">
-        <v>803886.6176225978</v>
+        <v>803886.6176225974</v>
       </c>
       <c r="K2" t="n">
-        <v>803886.617622598</v>
+        <v>803886.6176225975</v>
       </c>
       <c r="L2" t="n">
-        <v>817967.3399310132</v>
+        <v>817967.3399310127</v>
       </c>
       <c r="M2" t="n">
         <v>817967.3399310131</v>
       </c>
       <c r="N2" t="n">
-        <v>817967.3399310134</v>
+        <v>817967.3399310131</v>
       </c>
       <c r="O2" t="n">
+        <v>817967.3399310126</v>
+      </c>
+      <c r="P2" t="n">
         <v>817967.3399310131</v>
-      </c>
-      <c r="P2" t="n">
-        <v>817967.3399310128</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>15106.6875843894</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.6221536879</v>
+        <v>417183.622153688</v>
       </c>
       <c r="E3" t="n">
         <v>882263.3064808251</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92729.73503622606</v>
+        <v>92729.73503622595</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475326</v>
+        <v>3323.773824475296</v>
       </c>
       <c r="L3" t="n">
-        <v>97376.20129346754</v>
+        <v>97376.20129346759</v>
       </c>
       <c r="M3" t="n">
         <v>102778.9872429314</v>
@@ -26418,10 +26418,10 @@
         <v>354753.502998367</v>
       </c>
       <c r="C4" t="n">
-        <v>350497.5914804416</v>
+        <v>350497.5914804417</v>
       </c>
       <c r="D4" t="n">
-        <v>227638.2345336369</v>
+        <v>227638.2345336368</v>
       </c>
       <c r="E4" t="n">
         <v>31025.13979528974</v>
@@ -26430,31 +26430,31 @@
         <v>31025.13979528974</v>
       </c>
       <c r="G4" t="n">
-        <v>31025.13979528972</v>
+        <v>31025.13979528976</v>
       </c>
       <c r="H4" t="n">
         <v>31025.13979528978</v>
       </c>
       <c r="I4" t="n">
-        <v>31025.13979528974</v>
+        <v>31025.13979528972</v>
       </c>
       <c r="J4" t="n">
-        <v>14079.73508069776</v>
+        <v>14079.73508069765</v>
       </c>
       <c r="K4" t="n">
-        <v>14079.73508069774</v>
+        <v>14079.73508069766</v>
       </c>
       <c r="L4" t="n">
-        <v>31025.13979528985</v>
+        <v>31025.13979528966</v>
       </c>
       <c r="M4" t="n">
-        <v>31025.13979528987</v>
+        <v>31025.13979528982</v>
       </c>
       <c r="N4" t="n">
-        <v>31025.13979528978</v>
+        <v>31025.13979528979</v>
       </c>
       <c r="O4" t="n">
-        <v>31025.13979528974</v>
+        <v>31025.13979528977</v>
       </c>
       <c r="P4" t="n">
         <v>31025.13979528976</v>
@@ -26482,22 +26482,22 @@
         <v>96440.24294628818</v>
       </c>
       <c r="G5" t="n">
-        <v>96440.24294628818</v>
+        <v>96440.2429462882</v>
       </c>
       <c r="H5" t="n">
         <v>96440.24294628817</v>
       </c>
       <c r="I5" t="n">
-        <v>96440.24294628817</v>
+        <v>96440.24294628818</v>
       </c>
       <c r="J5" t="n">
-        <v>99914.5191971169</v>
+        <v>99914.51919711691</v>
       </c>
       <c r="K5" t="n">
         <v>99914.51919711691</v>
       </c>
       <c r="L5" t="n">
-        <v>96440.24294628817</v>
+        <v>96440.24294628818</v>
       </c>
       <c r="M5" t="n">
         <v>96440.24294628817</v>
@@ -26522,46 +26522,46 @@
         <v>305759.4045841329</v>
       </c>
       <c r="C6" t="n">
-        <v>404256.1112826718</v>
+        <v>404256.1112826715</v>
       </c>
       <c r="D6" t="n">
-        <v>93360.83511354896</v>
+        <v>93360.83511354864</v>
       </c>
       <c r="E6" t="n">
-        <v>-191761.3492913899</v>
+        <v>-191769.0353662233</v>
       </c>
       <c r="F6" t="n">
-        <v>690501.9571894349</v>
+        <v>690494.2711146019</v>
       </c>
       <c r="G6" t="n">
-        <v>690501.9571894349</v>
+        <v>690494.2711146018</v>
       </c>
       <c r="H6" t="n">
-        <v>690501.9571894348</v>
+        <v>690494.2711146018</v>
       </c>
       <c r="I6" t="n">
-        <v>690501.957189435</v>
+        <v>690494.2711146015</v>
       </c>
       <c r="J6" t="n">
-        <v>597162.628308557</v>
+        <v>597119.7404279525</v>
       </c>
       <c r="K6" t="n">
-        <v>686568.589520308</v>
+        <v>686525.7016397034</v>
       </c>
       <c r="L6" t="n">
-        <v>593125.7558959676</v>
+        <v>593118.0698211342</v>
       </c>
       <c r="M6" t="n">
-        <v>587722.9699465036</v>
+        <v>587715.2838716705</v>
       </c>
       <c r="N6" t="n">
-        <v>690501.9571894355</v>
+        <v>690494.2711146019</v>
       </c>
       <c r="O6" t="n">
-        <v>690501.9571894351</v>
+        <v>690494.2711146015</v>
       </c>
       <c r="P6" t="n">
-        <v>690501.9571894349</v>
+        <v>690494.271114602</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="F2" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="G2" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="H2" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="I2" t="n">
         <v>24.60893773911157</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="M2" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="N2" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="O2" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="P2" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1298.120976117558</v>
@@ -26793,7 +26793,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1086.716396054869</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.60893773911164</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>12.00787803233601</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979613</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="E3" t="n">
         <v>920.3773119004718</v>
@@ -27015,10 +27015,10 @@
         <v>12.91447975068888</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="E4" t="n">
-        <v>412.4291233003137</v>
+        <v>412.4291233003136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>354.4118536493327</v>
+        <v>354.4118536493324</v>
       </c>
       <c r="K4" t="n">
-        <v>12.914479750689</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>306.9609393545335</v>
+        <v>306.960939354534</v>
       </c>
       <c r="M4" t="n">
-        <v>412.4291233003139</v>
+        <v>412.4291233003133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
-        <v>412.4291233003137</v>
+        <v>412.4291233003136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27400,7 +27400,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.52785008955171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>73.52696770396494</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>184.8794499323616</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>133.3494487187205</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>132.0199415625256</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27588,7 +27588,7 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>67.9332040940478</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>118.3204300933598</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -27664,16 +27664,16 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>233.8643441505979</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>59.23481795692781</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>56.78733164066692</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>140.7311001689623</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27828,7 +27828,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>192.0582235775503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>138.1563171092936</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>91.8933650201765</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>19.42954993933617</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="C11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="D11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="E11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="F11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="G11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="H11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="I11" t="n">
         <v>9.286707935140839</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="T11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="U11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="V11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="W11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="X11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="C13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="D13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="E13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="F13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="G13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="H13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="I13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="J13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="K13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="L13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="M13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="N13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="O13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="P13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="R13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="S13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="T13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="U13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="V13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="W13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="X13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="C14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="D14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="E14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="F14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="G14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="H14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="I14" t="n">
         <v>9.286707935140839</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="T14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911141</v>
       </c>
       <c r="U14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="V14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="W14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="X14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="C16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="D16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="E16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="F16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="G16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="H16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="I16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="J16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="K16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="L16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="M16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="N16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="O16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="P16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="R16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="S16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="T16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="U16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="V16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="W16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="X16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="C17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="D17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="E17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="F17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="G17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="H17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="I17" t="n">
         <v>9.286707935140839</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="T17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="U17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="V17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="W17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="X17" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.60893773911152</v>
+        <v>24.60893773911157</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="C19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="D19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="E19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="F19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="G19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="H19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="I19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="J19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="K19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="L19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="M19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="N19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="O19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="P19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="R19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="S19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="T19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="U19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="V19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="W19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="X19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="C20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911289</v>
       </c>
       <c r="D20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="E20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="F20" t="n">
-        <v>24.60893773911289</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="G20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="H20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="I20" t="n">
-        <v>9.286707935140896</v>
+        <v>9.286707935140839</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="T20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="U20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="V20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="W20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="X20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Y20" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="C22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="D22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="E22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="F22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="G22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="H22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="I22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="J22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="K22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="L22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="M22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="N22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="O22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="P22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="R22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="S22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="T22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="U22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="V22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="W22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="X22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911157</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>24.60893773911157</v>
       </c>
       <c r="I23" t="n">
-        <v>9.286707935140896</v>
+        <v>9.286707935140839</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29326,22 +29326,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.064385877035607e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="C32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="D32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="E32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="F32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="G32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="H32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="I32" t="n">
-        <v>9.286707935140896</v>
+        <v>9.286707935140839</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="T32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="U32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="V32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="W32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="X32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="Y32" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="C34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="D34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="E34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="F34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="G34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="H34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="I34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="J34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="K34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="L34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="M34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="N34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="O34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="P34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="R34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="S34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="T34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="U34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="V34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="W34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="X34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911151</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="C35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="D35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="E35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="F35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="G35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="H35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="I35" t="n">
-        <v>9.286707935140896</v>
+        <v>9.286707935140839</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="T35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="U35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="V35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="W35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="X35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="Y35" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="C37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="D37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="E37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="F37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="G37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="H37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="I37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="J37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="K37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="L37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="M37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="N37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="O37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="P37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="R37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="S37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="T37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="U37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="V37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="W37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="X37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.60893773911171</v>
+        <v>24.60893773911168</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="C38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="D38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="E38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="F38" t="n">
-        <v>24.60893773911141</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="G38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="H38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="I38" t="n">
-        <v>9.286707935140896</v>
+        <v>9.286707935140839</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="T38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="U38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="V38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="W38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="X38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="Y38" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="C40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="D40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="E40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="F40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="G40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="H40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="I40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="J40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="K40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="L40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="M40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="N40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="O40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="P40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="R40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="S40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="T40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="U40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="V40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="W40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="X40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.60893773911165</v>
+        <v>24.60893773911164</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="C41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="D41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="E41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="F41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="G41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="H41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="I41" t="n">
-        <v>9.286707935140896</v>
+        <v>9.286707935140839</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="T41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="U41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="V41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="W41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="X41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="Y41" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="C43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="D43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="E43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="F43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="G43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="H43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="I43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="J43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="K43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="L43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="M43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="N43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="O43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="P43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="R43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="S43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="T43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="U43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="V43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="W43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="X43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="C44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="D44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="E44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="F44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="G44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="H44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="I44" t="n">
-        <v>9.286707935140896</v>
+        <v>9.286707935140839</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="T44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="U44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="V44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="W44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="X44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="Y44" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="C46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="D46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="E46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="F46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="G46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="H46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="I46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="J46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="K46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="L46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="M46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="N46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="O46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="P46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="R46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="S46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="T46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="U46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="V46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="W46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="X46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.60893773911158</v>
+        <v>24.60893773911162</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31847,16 +31847,16 @@
         <v>606.2592351198089</v>
       </c>
       <c r="M12" t="n">
-        <v>707.4759319840692</v>
+        <v>552.0181037371042</v>
       </c>
       <c r="N12" t="n">
-        <v>726.2007147433501</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>313.2253621471352</v>
+        <v>664.331779164615</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>533.1848213038327</v>
       </c>
       <c r="Q12" t="n">
         <v>356.4199329143908</v>
@@ -32078,19 +32078,19 @@
         <v>263.8002259108333</v>
       </c>
       <c r="K15" t="n">
-        <v>450.8766035633977</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>606.2592351198089</v>
       </c>
       <c r="M15" t="n">
-        <v>356.3695149665896</v>
+        <v>707.4759319840692</v>
       </c>
       <c r="N15" t="n">
         <v>726.2007147433501</v>
       </c>
       <c r="O15" t="n">
-        <v>664.331779164615</v>
+        <v>653.9414052054192</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>356.4199329143908</v>
       </c>
       <c r="R15" t="n">
-        <v>173.3603824332091</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>51.86360692318733</v>
@@ -32315,10 +32315,10 @@
         <v>263.8002259108333</v>
       </c>
       <c r="K18" t="n">
-        <v>222.2953073765861</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>606.2592351198089</v>
+        <v>168.9775688018656</v>
       </c>
       <c r="M18" t="n">
         <v>707.4759319840692</v>
@@ -32327,7 +32327,7 @@
         <v>726.2007147433501</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>664.331779164615</v>
       </c>
       <c r="P18" t="n">
         <v>533.1848213038327</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.218576788412291</v>
+        <v>5.218576788412292</v>
       </c>
       <c r="H20" t="n">
         <v>53.44474953432739</v>
       </c>
       <c r="I20" t="n">
-        <v>201.189181635265</v>
+        <v>201.1891816352651</v>
       </c>
       <c r="J20" t="n">
         <v>442.9201816955081</v>
       </c>
       <c r="K20" t="n">
-        <v>663.8225371490005</v>
+        <v>663.8225371490006</v>
       </c>
       <c r="L20" t="n">
-        <v>823.5305565373733</v>
+        <v>823.5305565373734</v>
       </c>
       <c r="M20" t="n">
-        <v>916.3364214983003</v>
+        <v>916.3364214983004</v>
       </c>
       <c r="N20" t="n">
-        <v>931.1637027983768</v>
+        <v>931.1637027983769</v>
       </c>
       <c r="O20" t="n">
-        <v>879.271479858602</v>
+        <v>879.2714798586021</v>
       </c>
       <c r="P20" t="n">
-        <v>750.4378653946735</v>
+        <v>750.4378653946736</v>
       </c>
       <c r="Q20" t="n">
         <v>563.5475841596582</v>
       </c>
       <c r="R20" t="n">
-        <v>327.8114241851038</v>
+        <v>327.8114241851039</v>
       </c>
       <c r="S20" t="n">
         <v>118.9183185659452</v>
       </c>
       <c r="T20" t="n">
-        <v>22.84431989127481</v>
+        <v>22.84431989127482</v>
       </c>
       <c r="U20" t="n">
         <v>0.4174861430729832</v>
@@ -32546,37 +32546,37 @@
         <v>26.96662631519683</v>
       </c>
       <c r="I21" t="n">
-        <v>96.1344307785173</v>
+        <v>96.13443077851731</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>450.8766035633976</v>
+        <v>450.8766035633977</v>
       </c>
       <c r="L21" t="n">
-        <v>606.2592351198087</v>
+        <v>606.2592351198089</v>
       </c>
       <c r="M21" t="n">
-        <v>707.4759319840691</v>
+        <v>707.4759319840692</v>
       </c>
       <c r="N21" t="n">
-        <v>726.20071474335</v>
+        <v>634.5820178007052</v>
       </c>
       <c r="O21" t="n">
-        <v>664.3317791646149</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>163.9496269386326</v>
+        <v>533.1848213038327</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>356.4199329143908</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>173.3603824332091</v>
       </c>
       <c r="S21" t="n">
-        <v>51.86360692318732</v>
+        <v>51.86360692318733</v>
       </c>
       <c r="T21" t="n">
         <v>11.25446393445317</v>
@@ -32625,16 +32625,16 @@
         <v>20.81249696136021</v>
       </c>
       <c r="I22" t="n">
-        <v>70.39646211470301</v>
+        <v>70.39646211470303</v>
       </c>
       <c r="J22" t="n">
-        <v>165.4997841191188</v>
+        <v>165.4997841191189</v>
       </c>
       <c r="K22" t="n">
         <v>271.9669848324982</v>
       </c>
       <c r="L22" t="n">
-        <v>348.0241056299434</v>
+        <v>348.0241056299435</v>
       </c>
       <c r="M22" t="n">
         <v>366.9426228064763</v>
@@ -32643,7 +32643,7 @@
         <v>358.2175473932274</v>
       </c>
       <c r="O22" t="n">
-        <v>330.8718842078</v>
+        <v>330.8718842078001</v>
       </c>
       <c r="P22" t="n">
         <v>283.1180568240654</v>
@@ -32652,10 +32652,10 @@
         <v>196.0162673937513</v>
       </c>
       <c r="R22" t="n">
-        <v>105.2542024242203</v>
+        <v>105.2542024242204</v>
       </c>
       <c r="S22" t="n">
-        <v>40.79504772487472</v>
+        <v>40.79504772487473</v>
       </c>
       <c r="T22" t="n">
         <v>10.00191571762709</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.218576788412291</v>
+        <v>5.218576788412292</v>
       </c>
       <c r="H23" t="n">
         <v>53.44474953432739</v>
       </c>
       <c r="I23" t="n">
-        <v>201.189181635265</v>
+        <v>201.1891816352651</v>
       </c>
       <c r="J23" t="n">
         <v>442.9201816955081</v>
       </c>
       <c r="K23" t="n">
-        <v>663.8225371490005</v>
+        <v>663.8225371490006</v>
       </c>
       <c r="L23" t="n">
-        <v>823.5305565373733</v>
+        <v>823.5305565373734</v>
       </c>
       <c r="M23" t="n">
-        <v>916.3364214983003</v>
+        <v>916.3364214983004</v>
       </c>
       <c r="N23" t="n">
-        <v>931.1637027983768</v>
+        <v>931.1637027983769</v>
       </c>
       <c r="O23" t="n">
-        <v>879.271479858602</v>
+        <v>879.2714798586021</v>
       </c>
       <c r="P23" t="n">
-        <v>750.4378653946735</v>
+        <v>750.4378653946736</v>
       </c>
       <c r="Q23" t="n">
         <v>563.5475841596582</v>
       </c>
       <c r="R23" t="n">
-        <v>327.8114241851038</v>
+        <v>327.8114241851039</v>
       </c>
       <c r="S23" t="n">
         <v>118.9183185659452</v>
       </c>
       <c r="T23" t="n">
-        <v>22.84431989127481</v>
+        <v>22.84431989127482</v>
       </c>
       <c r="U23" t="n">
         <v>0.4174861430729832</v>
@@ -32783,37 +32783,37 @@
         <v>26.96662631519683</v>
       </c>
       <c r="I24" t="n">
-        <v>96.1344307785173</v>
+        <v>96.13443077851731</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>450.8766035633976</v>
+        <v>450.8766035633977</v>
       </c>
       <c r="L24" t="n">
-        <v>606.2592351198087</v>
+        <v>606.2592351198089</v>
       </c>
       <c r="M24" t="n">
-        <v>707.4759319840691</v>
+        <v>707.4759319840692</v>
       </c>
       <c r="N24" t="n">
-        <v>726.20071474335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>664.3317791646149</v>
+        <v>645.8365501618164</v>
       </c>
       <c r="P24" t="n">
-        <v>163.9496269386326</v>
+        <v>533.1848213038327</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>356.4199329143908</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>173.3603824332091</v>
       </c>
       <c r="S24" t="n">
-        <v>51.86360692318732</v>
+        <v>51.86360692318733</v>
       </c>
       <c r="T24" t="n">
         <v>11.25446393445317</v>
@@ -32862,16 +32862,16 @@
         <v>20.81249696136021</v>
       </c>
       <c r="I25" t="n">
-        <v>70.39646211470301</v>
+        <v>70.39646211470303</v>
       </c>
       <c r="J25" t="n">
-        <v>165.4997841191188</v>
+        <v>165.4997841191189</v>
       </c>
       <c r="K25" t="n">
         <v>271.9669848324982</v>
       </c>
       <c r="L25" t="n">
-        <v>348.0241056299434</v>
+        <v>348.0241056299435</v>
       </c>
       <c r="M25" t="n">
         <v>366.9426228064763</v>
@@ -32880,7 +32880,7 @@
         <v>358.2175473932274</v>
       </c>
       <c r="O25" t="n">
-        <v>330.8718842078</v>
+        <v>330.8718842078001</v>
       </c>
       <c r="P25" t="n">
         <v>283.1180568240654</v>
@@ -32889,10 +32889,10 @@
         <v>196.0162673937513</v>
       </c>
       <c r="R25" t="n">
-        <v>105.2542024242203</v>
+        <v>105.2542024242204</v>
       </c>
       <c r="S25" t="n">
-        <v>40.79504772487472</v>
+        <v>40.79504772487473</v>
       </c>
       <c r="T25" t="n">
         <v>10.00191571762709</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.218576788412291</v>
+        <v>5.218576788412292</v>
       </c>
       <c r="H26" t="n">
         <v>53.44474953432739</v>
       </c>
       <c r="I26" t="n">
-        <v>201.189181635265</v>
+        <v>201.1891816352651</v>
       </c>
       <c r="J26" t="n">
         <v>442.9201816955081</v>
       </c>
       <c r="K26" t="n">
-        <v>663.8225371490005</v>
+        <v>663.8225371490006</v>
       </c>
       <c r="L26" t="n">
-        <v>823.5305565373733</v>
+        <v>823.5305565373734</v>
       </c>
       <c r="M26" t="n">
-        <v>916.3364214983003</v>
+        <v>916.3364214983004</v>
       </c>
       <c r="N26" t="n">
-        <v>931.1637027983768</v>
+        <v>931.1637027983769</v>
       </c>
       <c r="O26" t="n">
-        <v>879.271479858602</v>
+        <v>879.2714798586021</v>
       </c>
       <c r="P26" t="n">
-        <v>750.4378653946735</v>
+        <v>750.4378653946736</v>
       </c>
       <c r="Q26" t="n">
         <v>563.5475841596582</v>
       </c>
       <c r="R26" t="n">
-        <v>327.8114241851038</v>
+        <v>327.8114241851039</v>
       </c>
       <c r="S26" t="n">
         <v>118.9183185659452</v>
       </c>
       <c r="T26" t="n">
-        <v>22.84431989127481</v>
+        <v>22.84431989127482</v>
       </c>
       <c r="U26" t="n">
         <v>0.4174861430729832</v>
@@ -33020,28 +33020,28 @@
         <v>26.96662631519683</v>
       </c>
       <c r="I27" t="n">
-        <v>96.1344307785173</v>
+        <v>96.13443077851731</v>
       </c>
       <c r="J27" t="n">
-        <v>263.8002259108333</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>450.8766035633976</v>
+        <v>450.8766035633977</v>
       </c>
       <c r="L27" t="n">
-        <v>606.2592351198087</v>
+        <v>606.2592351198089</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>707.4759319840692</v>
       </c>
       <c r="N27" t="n">
-        <v>541.2257818984195</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>664.3317791646149</v>
+        <v>664.331779164615</v>
       </c>
       <c r="P27" t="n">
-        <v>533.1848213038326</v>
+        <v>514.6895923010343</v>
       </c>
       <c r="Q27" t="n">
         <v>356.4199329143908</v>
@@ -33050,7 +33050,7 @@
         <v>173.3603824332091</v>
       </c>
       <c r="S27" t="n">
-        <v>51.86360692318732</v>
+        <v>51.86360692318733</v>
       </c>
       <c r="T27" t="n">
         <v>11.25446393445317</v>
@@ -33099,16 +33099,16 @@
         <v>20.81249696136021</v>
       </c>
       <c r="I28" t="n">
-        <v>70.39646211470301</v>
+        <v>70.39646211470303</v>
       </c>
       <c r="J28" t="n">
-        <v>165.4997841191188</v>
+        <v>165.4997841191189</v>
       </c>
       <c r="K28" t="n">
         <v>271.9669848324982</v>
       </c>
       <c r="L28" t="n">
-        <v>348.0241056299434</v>
+        <v>348.0241056299435</v>
       </c>
       <c r="M28" t="n">
         <v>366.9426228064763</v>
@@ -33117,7 +33117,7 @@
         <v>358.2175473932274</v>
       </c>
       <c r="O28" t="n">
-        <v>330.8718842078</v>
+        <v>330.8718842078001</v>
       </c>
       <c r="P28" t="n">
         <v>283.1180568240654</v>
@@ -33126,10 +33126,10 @@
         <v>196.0162673937513</v>
       </c>
       <c r="R28" t="n">
-        <v>105.2542024242203</v>
+        <v>105.2542024242204</v>
       </c>
       <c r="S28" t="n">
-        <v>40.79504772487472</v>
+        <v>40.79504772487473</v>
       </c>
       <c r="T28" t="n">
         <v>10.00191571762709</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.218576788412291</v>
+        <v>5.218576788412292</v>
       </c>
       <c r="H29" t="n">
         <v>53.44474953432739</v>
       </c>
       <c r="I29" t="n">
-        <v>201.189181635265</v>
+        <v>201.1891816352651</v>
       </c>
       <c r="J29" t="n">
         <v>442.9201816955081</v>
       </c>
       <c r="K29" t="n">
-        <v>663.8225371490005</v>
+        <v>663.8225371490006</v>
       </c>
       <c r="L29" t="n">
-        <v>823.5305565373733</v>
+        <v>823.5305565373734</v>
       </c>
       <c r="M29" t="n">
-        <v>916.3364214983003</v>
+        <v>916.3364214983004</v>
       </c>
       <c r="N29" t="n">
-        <v>931.1637027983768</v>
+        <v>931.1637027983769</v>
       </c>
       <c r="O29" t="n">
-        <v>879.271479858602</v>
+        <v>879.2714798586021</v>
       </c>
       <c r="P29" t="n">
-        <v>750.4378653946735</v>
+        <v>750.4378653946736</v>
       </c>
       <c r="Q29" t="n">
         <v>563.5475841596582</v>
       </c>
       <c r="R29" t="n">
-        <v>327.8114241851038</v>
+        <v>327.8114241851039</v>
       </c>
       <c r="S29" t="n">
         <v>118.9183185659452</v>
       </c>
       <c r="T29" t="n">
-        <v>22.84431989127481</v>
+        <v>22.84431989127482</v>
       </c>
       <c r="U29" t="n">
         <v>0.4174861430729832</v>
@@ -33257,37 +33257,37 @@
         <v>26.96662631519683</v>
       </c>
       <c r="I30" t="n">
-        <v>96.1344307785173</v>
+        <v>96.13443077851731</v>
       </c>
       <c r="J30" t="n">
         <v>263.8002259108333</v>
       </c>
       <c r="K30" t="n">
-        <v>450.8766035633976</v>
+        <v>265.9016707184666</v>
       </c>
       <c r="L30" t="n">
-        <v>606.2592351198087</v>
+        <v>606.2592351198089</v>
       </c>
       <c r="M30" t="n">
-        <v>707.4759319840691</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>726.20071474335</v>
+        <v>726.2007147433501</v>
       </c>
       <c r="O30" t="n">
-        <v>557.34439944475</v>
+        <v>664.331779164615</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>533.1848213038327</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>356.4199329143908</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>173.3603824332091</v>
       </c>
       <c r="S30" t="n">
-        <v>51.86360692318732</v>
+        <v>51.86360692318733</v>
       </c>
       <c r="T30" t="n">
         <v>11.25446393445317</v>
@@ -33336,16 +33336,16 @@
         <v>20.81249696136021</v>
       </c>
       <c r="I31" t="n">
-        <v>70.39646211470301</v>
+        <v>70.39646211470303</v>
       </c>
       <c r="J31" t="n">
-        <v>165.4997841191188</v>
+        <v>165.4997841191189</v>
       </c>
       <c r="K31" t="n">
         <v>271.9669848324982</v>
       </c>
       <c r="L31" t="n">
-        <v>348.0241056299434</v>
+        <v>348.0241056299435</v>
       </c>
       <c r="M31" t="n">
         <v>366.9426228064763</v>
@@ -33354,7 +33354,7 @@
         <v>358.2175473932274</v>
       </c>
       <c r="O31" t="n">
-        <v>330.8718842078</v>
+        <v>330.8718842078001</v>
       </c>
       <c r="P31" t="n">
         <v>283.1180568240654</v>
@@ -33363,10 +33363,10 @@
         <v>196.0162673937513</v>
       </c>
       <c r="R31" t="n">
-        <v>105.2542024242203</v>
+        <v>105.2542024242204</v>
       </c>
       <c r="S31" t="n">
-        <v>40.79504772487472</v>
+        <v>40.79504772487473</v>
       </c>
       <c r="T31" t="n">
         <v>10.00191571762709</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.218576788412291</v>
+        <v>5.218576788412292</v>
       </c>
       <c r="H32" t="n">
         <v>53.44474953432739</v>
       </c>
       <c r="I32" t="n">
-        <v>201.189181635265</v>
+        <v>201.1891816352651</v>
       </c>
       <c r="J32" t="n">
         <v>442.9201816955081</v>
       </c>
       <c r="K32" t="n">
-        <v>663.8225371490005</v>
+        <v>663.8225371490006</v>
       </c>
       <c r="L32" t="n">
-        <v>823.5305565373733</v>
+        <v>823.5305565373734</v>
       </c>
       <c r="M32" t="n">
-        <v>916.3364214983003</v>
+        <v>916.3364214983004</v>
       </c>
       <c r="N32" t="n">
-        <v>931.1637027983768</v>
+        <v>931.1637027983769</v>
       </c>
       <c r="O32" t="n">
-        <v>879.271479858602</v>
+        <v>879.2714798586021</v>
       </c>
       <c r="P32" t="n">
-        <v>750.4378653946735</v>
+        <v>750.4378653946736</v>
       </c>
       <c r="Q32" t="n">
         <v>563.5475841596582</v>
       </c>
       <c r="R32" t="n">
-        <v>327.8114241851038</v>
+        <v>327.8114241851039</v>
       </c>
       <c r="S32" t="n">
         <v>118.9183185659452</v>
       </c>
       <c r="T32" t="n">
-        <v>22.84431989127481</v>
+        <v>22.84431989127482</v>
       </c>
       <c r="U32" t="n">
         <v>0.4174861430729832</v>
@@ -33494,37 +33494,37 @@
         <v>26.96662631519683</v>
       </c>
       <c r="I33" t="n">
-        <v>96.1344307785173</v>
+        <v>96.13443077851731</v>
       </c>
       <c r="J33" t="n">
         <v>263.8002259108333</v>
       </c>
       <c r="K33" t="n">
-        <v>450.8766035633976</v>
+        <v>450.8766035633977</v>
       </c>
       <c r="L33" t="n">
-        <v>606.2592351198087</v>
+        <v>606.2592351198089</v>
       </c>
       <c r="M33" t="n">
-        <v>707.4759319840691</v>
+        <v>478.8946357972577</v>
       </c>
       <c r="N33" t="n">
-        <v>726.20071474335</v>
+        <v>726.2007147433501</v>
       </c>
       <c r="O33" t="n">
-        <v>557.34439944475</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>533.1848213038327</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>356.4199329143908</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>173.3603824332091</v>
       </c>
       <c r="S33" t="n">
-        <v>51.86360692318732</v>
+        <v>51.86360692318733</v>
       </c>
       <c r="T33" t="n">
         <v>11.25446393445317</v>
@@ -33573,16 +33573,16 @@
         <v>20.81249696136021</v>
       </c>
       <c r="I34" t="n">
-        <v>70.39646211470301</v>
+        <v>70.39646211470303</v>
       </c>
       <c r="J34" t="n">
-        <v>165.4997841191188</v>
+        <v>165.4997841191189</v>
       </c>
       <c r="K34" t="n">
         <v>271.9669848324982</v>
       </c>
       <c r="L34" t="n">
-        <v>348.0241056299434</v>
+        <v>348.0241056299435</v>
       </c>
       <c r="M34" t="n">
         <v>366.9426228064763</v>
@@ -33591,7 +33591,7 @@
         <v>358.2175473932274</v>
       </c>
       <c r="O34" t="n">
-        <v>330.8718842078</v>
+        <v>330.8718842078001</v>
       </c>
       <c r="P34" t="n">
         <v>283.1180568240654</v>
@@ -33600,10 +33600,10 @@
         <v>196.0162673937513</v>
       </c>
       <c r="R34" t="n">
-        <v>105.2542024242203</v>
+        <v>105.2542024242204</v>
       </c>
       <c r="S34" t="n">
-        <v>40.79504772487472</v>
+        <v>40.79504772487473</v>
       </c>
       <c r="T34" t="n">
         <v>10.00191571762709</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.218576788412291</v>
+        <v>5.218576788412292</v>
       </c>
       <c r="H35" t="n">
         <v>53.44474953432739</v>
       </c>
       <c r="I35" t="n">
-        <v>201.189181635265</v>
+        <v>201.1891816352651</v>
       </c>
       <c r="J35" t="n">
         <v>442.9201816955081</v>
       </c>
       <c r="K35" t="n">
-        <v>663.8225371490005</v>
+        <v>663.8225371490006</v>
       </c>
       <c r="L35" t="n">
-        <v>823.5305565373733</v>
+        <v>823.5305565373734</v>
       </c>
       <c r="M35" t="n">
-        <v>916.3364214983003</v>
+        <v>916.3364214983004</v>
       </c>
       <c r="N35" t="n">
-        <v>931.1637027983768</v>
+        <v>931.1637027983769</v>
       </c>
       <c r="O35" t="n">
-        <v>879.271479858602</v>
+        <v>879.2714798586021</v>
       </c>
       <c r="P35" t="n">
-        <v>750.4378653946735</v>
+        <v>750.4378653946736</v>
       </c>
       <c r="Q35" t="n">
         <v>563.5475841596582</v>
       </c>
       <c r="R35" t="n">
-        <v>327.8114241851038</v>
+        <v>327.8114241851039</v>
       </c>
       <c r="S35" t="n">
         <v>118.9183185659452</v>
       </c>
       <c r="T35" t="n">
-        <v>22.84431989127481</v>
+        <v>22.84431989127482</v>
       </c>
       <c r="U35" t="n">
         <v>0.4174861430729832</v>
@@ -33731,37 +33731,37 @@
         <v>26.96662631519683</v>
       </c>
       <c r="I36" t="n">
-        <v>96.1344307785173</v>
+        <v>96.13443077851731</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>263.8002259108333</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>450.8766035633977</v>
       </c>
       <c r="L36" t="n">
-        <v>606.2592351198087</v>
+        <v>377.6779389329974</v>
       </c>
       <c r="M36" t="n">
-        <v>707.4759319840691</v>
+        <v>707.4759319840692</v>
       </c>
       <c r="N36" t="n">
-        <v>726.20071474335</v>
+        <v>726.2007147433501</v>
       </c>
       <c r="O36" t="n">
-        <v>664.3317791646149</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>476.9847915276706</v>
+        <v>533.1848213038327</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>356.4199329143908</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>173.3603824332091</v>
       </c>
       <c r="S36" t="n">
-        <v>51.86360692318732</v>
+        <v>51.86360692318733</v>
       </c>
       <c r="T36" t="n">
         <v>11.25446393445317</v>
@@ -33810,16 +33810,16 @@
         <v>20.81249696136021</v>
       </c>
       <c r="I37" t="n">
-        <v>70.39646211470301</v>
+        <v>70.39646211470303</v>
       </c>
       <c r="J37" t="n">
-        <v>165.4997841191188</v>
+        <v>165.4997841191189</v>
       </c>
       <c r="K37" t="n">
         <v>271.9669848324982</v>
       </c>
       <c r="L37" t="n">
-        <v>348.0241056299434</v>
+        <v>348.0241056299435</v>
       </c>
       <c r="M37" t="n">
         <v>366.9426228064763</v>
@@ -33828,7 +33828,7 @@
         <v>358.2175473932274</v>
       </c>
       <c r="O37" t="n">
-        <v>330.8718842078</v>
+        <v>330.8718842078001</v>
       </c>
       <c r="P37" t="n">
         <v>283.1180568240654</v>
@@ -33837,10 +33837,10 @@
         <v>196.0162673937513</v>
       </c>
       <c r="R37" t="n">
-        <v>105.2542024242203</v>
+        <v>105.2542024242204</v>
       </c>
       <c r="S37" t="n">
-        <v>40.79504772487472</v>
+        <v>40.79504772487473</v>
       </c>
       <c r="T37" t="n">
         <v>10.00191571762709</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.218576788412291</v>
+        <v>5.218576788412292</v>
       </c>
       <c r="H38" t="n">
         <v>53.44474953432739</v>
       </c>
       <c r="I38" t="n">
-        <v>201.189181635265</v>
+        <v>201.1891816352651</v>
       </c>
       <c r="J38" t="n">
         <v>442.9201816955081</v>
       </c>
       <c r="K38" t="n">
-        <v>663.8225371490005</v>
+        <v>663.8225371490006</v>
       </c>
       <c r="L38" t="n">
-        <v>823.5305565373733</v>
+        <v>823.5305565373734</v>
       </c>
       <c r="M38" t="n">
-        <v>916.3364214983003</v>
+        <v>916.3364214983004</v>
       </c>
       <c r="N38" t="n">
-        <v>931.1637027983768</v>
+        <v>931.1637027983769</v>
       </c>
       <c r="O38" t="n">
-        <v>879.271479858602</v>
+        <v>879.2714798586021</v>
       </c>
       <c r="P38" t="n">
-        <v>750.4378653946735</v>
+        <v>750.4378653946736</v>
       </c>
       <c r="Q38" t="n">
         <v>563.5475841596582</v>
       </c>
       <c r="R38" t="n">
-        <v>327.8114241851038</v>
+        <v>327.8114241851039</v>
       </c>
       <c r="S38" t="n">
         <v>118.9183185659452</v>
       </c>
       <c r="T38" t="n">
-        <v>22.84431989127481</v>
+        <v>22.84431989127482</v>
       </c>
       <c r="U38" t="n">
         <v>0.4174861430729832</v>
@@ -33968,37 +33968,37 @@
         <v>26.96662631519683</v>
       </c>
       <c r="I39" t="n">
-        <v>96.1344307785173</v>
+        <v>96.13443077851731</v>
       </c>
       <c r="J39" t="n">
-        <v>263.8002259108333</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>450.8766035633976</v>
+        <v>450.8766035633977</v>
       </c>
       <c r="L39" t="n">
-        <v>606.2592351198087</v>
+        <v>606.2592351198089</v>
       </c>
       <c r="M39" t="n">
-        <v>707.4759319840691</v>
+        <v>615.8572350414244</v>
       </c>
       <c r="N39" t="n">
-        <v>726.20071474335</v>
+        <v>726.2007147433501</v>
       </c>
       <c r="O39" t="n">
-        <v>557.34439944475</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>533.1848213038327</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>356.4199329143908</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>173.3603824332091</v>
       </c>
       <c r="S39" t="n">
-        <v>51.86360692318732</v>
+        <v>51.86360692318733</v>
       </c>
       <c r="T39" t="n">
         <v>11.25446393445317</v>
@@ -34047,16 +34047,16 @@
         <v>20.81249696136021</v>
       </c>
       <c r="I40" t="n">
-        <v>70.39646211470301</v>
+        <v>70.39646211470303</v>
       </c>
       <c r="J40" t="n">
-        <v>165.4997841191188</v>
+        <v>165.4997841191189</v>
       </c>
       <c r="K40" t="n">
         <v>271.9669848324982</v>
       </c>
       <c r="L40" t="n">
-        <v>348.0241056299434</v>
+        <v>348.0241056299435</v>
       </c>
       <c r="M40" t="n">
         <v>366.9426228064763</v>
@@ -34065,7 +34065,7 @@
         <v>358.2175473932274</v>
       </c>
       <c r="O40" t="n">
-        <v>330.8718842078</v>
+        <v>330.8718842078001</v>
       </c>
       <c r="P40" t="n">
         <v>283.1180568240654</v>
@@ -34074,10 +34074,10 @@
         <v>196.0162673937513</v>
       </c>
       <c r="R40" t="n">
-        <v>105.2542024242203</v>
+        <v>105.2542024242204</v>
       </c>
       <c r="S40" t="n">
-        <v>40.79504772487472</v>
+        <v>40.79504772487473</v>
       </c>
       <c r="T40" t="n">
         <v>10.00191571762709</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.218576788412291</v>
+        <v>5.218576788412292</v>
       </c>
       <c r="H41" t="n">
         <v>53.44474953432739</v>
       </c>
       <c r="I41" t="n">
-        <v>201.189181635265</v>
+        <v>201.1891816352651</v>
       </c>
       <c r="J41" t="n">
         <v>442.9201816955081</v>
       </c>
       <c r="K41" t="n">
-        <v>663.8225371490005</v>
+        <v>663.8225371490006</v>
       </c>
       <c r="L41" t="n">
-        <v>823.5305565373733</v>
+        <v>823.5305565373734</v>
       </c>
       <c r="M41" t="n">
-        <v>916.3364214983003</v>
+        <v>916.3364214983004</v>
       </c>
       <c r="N41" t="n">
-        <v>931.1637027983768</v>
+        <v>931.1637027983769</v>
       </c>
       <c r="O41" t="n">
-        <v>879.271479858602</v>
+        <v>879.2714798586021</v>
       </c>
       <c r="P41" t="n">
-        <v>750.4378653946735</v>
+        <v>750.4378653946736</v>
       </c>
       <c r="Q41" t="n">
         <v>563.5475841596582</v>
       </c>
       <c r="R41" t="n">
-        <v>327.8114241851038</v>
+        <v>327.8114241851039</v>
       </c>
       <c r="S41" t="n">
         <v>118.9183185659452</v>
       </c>
       <c r="T41" t="n">
-        <v>22.84431989127481</v>
+        <v>22.84431989127482</v>
       </c>
       <c r="U41" t="n">
         <v>0.4174861430729832</v>
@@ -34205,37 +34205,37 @@
         <v>26.96662631519683</v>
       </c>
       <c r="I42" t="n">
-        <v>96.1344307785173</v>
+        <v>96.13443077851731</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>450.8766035633977</v>
       </c>
       <c r="L42" t="n">
-        <v>305.9401680460326</v>
+        <v>209.3431622853624</v>
       </c>
       <c r="M42" t="n">
-        <v>707.4759319840691</v>
+        <v>707.4759319840692</v>
       </c>
       <c r="N42" t="n">
-        <v>726.20071474335</v>
+        <v>726.2007147433501</v>
       </c>
       <c r="O42" t="n">
-        <v>664.3317791646149</v>
+        <v>664.331779164615</v>
       </c>
       <c r="P42" t="n">
-        <v>533.1848213038326</v>
+        <v>533.1848213038327</v>
       </c>
       <c r="Q42" t="n">
-        <v>356.4199329143908</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>173.3603824332091</v>
       </c>
       <c r="S42" t="n">
-        <v>51.86360692318732</v>
+        <v>51.86360692318733</v>
       </c>
       <c r="T42" t="n">
         <v>11.25446393445317</v>
@@ -34284,16 +34284,16 @@
         <v>20.81249696136021</v>
       </c>
       <c r="I43" t="n">
-        <v>70.39646211470301</v>
+        <v>70.39646211470303</v>
       </c>
       <c r="J43" t="n">
-        <v>165.4997841191188</v>
+        <v>165.4997841191189</v>
       </c>
       <c r="K43" t="n">
         <v>271.9669848324982</v>
       </c>
       <c r="L43" t="n">
-        <v>348.0241056299434</v>
+        <v>348.0241056299435</v>
       </c>
       <c r="M43" t="n">
         <v>366.9426228064763</v>
@@ -34302,7 +34302,7 @@
         <v>358.2175473932274</v>
       </c>
       <c r="O43" t="n">
-        <v>330.8718842078</v>
+        <v>330.8718842078001</v>
       </c>
       <c r="P43" t="n">
         <v>283.1180568240654</v>
@@ -34311,10 +34311,10 @@
         <v>196.0162673937513</v>
       </c>
       <c r="R43" t="n">
-        <v>105.2542024242203</v>
+        <v>105.2542024242204</v>
       </c>
       <c r="S43" t="n">
-        <v>40.79504772487472</v>
+        <v>40.79504772487473</v>
       </c>
       <c r="T43" t="n">
         <v>10.00191571762709</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.218576788412291</v>
+        <v>5.218576788412292</v>
       </c>
       <c r="H44" t="n">
         <v>53.44474953432739</v>
       </c>
       <c r="I44" t="n">
-        <v>201.189181635265</v>
+        <v>201.1891816352651</v>
       </c>
       <c r="J44" t="n">
         <v>442.9201816955081</v>
       </c>
       <c r="K44" t="n">
-        <v>663.8225371490005</v>
+        <v>663.8225371490006</v>
       </c>
       <c r="L44" t="n">
-        <v>823.5305565373733</v>
+        <v>823.5305565373734</v>
       </c>
       <c r="M44" t="n">
-        <v>916.3364214983003</v>
+        <v>916.3364214983004</v>
       </c>
       <c r="N44" t="n">
-        <v>931.1637027983768</v>
+        <v>931.1637027983769</v>
       </c>
       <c r="O44" t="n">
-        <v>879.271479858602</v>
+        <v>879.2714798586021</v>
       </c>
       <c r="P44" t="n">
-        <v>750.4378653946735</v>
+        <v>750.4378653946736</v>
       </c>
       <c r="Q44" t="n">
         <v>563.5475841596582</v>
       </c>
       <c r="R44" t="n">
-        <v>327.8114241851038</v>
+        <v>327.8114241851039</v>
       </c>
       <c r="S44" t="n">
         <v>118.9183185659452</v>
       </c>
       <c r="T44" t="n">
-        <v>22.84431989127481</v>
+        <v>22.84431989127482</v>
       </c>
       <c r="U44" t="n">
         <v>0.4174861430729832</v>
@@ -34442,37 +34442,37 @@
         <v>26.96662631519683</v>
       </c>
       <c r="I45" t="n">
-        <v>96.1344307785173</v>
+        <v>96.13443077851731</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>450.8766035633977</v>
       </c>
       <c r="L45" t="n">
-        <v>305.9401680460326</v>
+        <v>606.2592351198089</v>
       </c>
       <c r="M45" t="n">
-        <v>707.4759319840691</v>
+        <v>707.4759319840692</v>
       </c>
       <c r="N45" t="n">
-        <v>726.20071474335</v>
+        <v>329.2846419089036</v>
       </c>
       <c r="O45" t="n">
-        <v>664.3317791646149</v>
+        <v>664.331779164615</v>
       </c>
       <c r="P45" t="n">
-        <v>533.1848213038326</v>
+        <v>533.1848213038327</v>
       </c>
       <c r="Q45" t="n">
-        <v>356.4199329143908</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>173.3603824332091</v>
       </c>
       <c r="S45" t="n">
-        <v>51.86360692318732</v>
+        <v>51.86360692318733</v>
       </c>
       <c r="T45" t="n">
         <v>11.25446393445317</v>
@@ -34521,16 +34521,16 @@
         <v>20.81249696136021</v>
       </c>
       <c r="I46" t="n">
-        <v>70.39646211470301</v>
+        <v>70.39646211470303</v>
       </c>
       <c r="J46" t="n">
-        <v>165.4997841191188</v>
+        <v>165.4997841191189</v>
       </c>
       <c r="K46" t="n">
         <v>271.9669848324982</v>
       </c>
       <c r="L46" t="n">
-        <v>348.0241056299434</v>
+        <v>348.0241056299435</v>
       </c>
       <c r="M46" t="n">
         <v>366.9426228064763</v>
@@ -34539,7 +34539,7 @@
         <v>358.2175473932274</v>
       </c>
       <c r="O46" t="n">
-        <v>330.8718842078</v>
+        <v>330.8718842078001</v>
       </c>
       <c r="P46" t="n">
         <v>283.1180568240654</v>
@@ -34548,10 +34548,10 @@
         <v>196.0162673937513</v>
       </c>
       <c r="R46" t="n">
-        <v>105.2542024242203</v>
+        <v>105.2542024242204</v>
       </c>
       <c r="S46" t="n">
-        <v>40.79504772487472</v>
+        <v>40.79504772487473</v>
       </c>
       <c r="T46" t="n">
         <v>10.00191571762709</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>2.459170114873292</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>263.2420339516666</v>
@@ -34790,7 +34790,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>106.945877257382</v>
       </c>
       <c r="P3" t="n">
         <v>193.9407825031299</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
         <v>138.7877391315785</v>
@@ -35021,7 +35021,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>130.7512515247421</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
         <v>276.1565137023555</v>
@@ -35030,7 +35030,7 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821096</v>
+        <v>47.09726275197413</v>
       </c>
       <c r="Q6" t="n">
         <v>79.71116244199196</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>467.7048553399347</v>
       </c>
       <c r="M12" t="n">
-        <v>565.3418980620509</v>
+        <v>409.8840698150858</v>
       </c>
       <c r="N12" t="n">
-        <v>594.8590026600168</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>170.6291177026907</v>
+        <v>521.7355347201706</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>399.2104138895024</v>
       </c>
       <c r="Q12" t="n">
         <v>216.4381588283693</v>
@@ -35571,7 +35571,7 @@
         <v>274.3064307457269</v>
       </c>
       <c r="L13" t="n">
-        <v>400.2230686293713</v>
+        <v>400.2230686293712</v>
       </c>
       <c r="M13" t="n">
         <v>431.1354375074285</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>261.8742771688218</v>
+        <v>261.874277168823</v>
       </c>
       <c r="K14" t="n">
         <v>443.73268610402</v>
@@ -35668,7 +35668,7 @@
         <v>341.2418942852087</v>
       </c>
       <c r="R14" t="n">
-        <v>112.2258863709726</v>
+        <v>112.2258863709718</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>136.9625992441666</v>
       </c>
       <c r="K15" t="n">
-        <v>313.0351645890387</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>467.7048553399347</v>
       </c>
       <c r="M15" t="n">
-        <v>214.2354810445712</v>
+        <v>565.3418980620509</v>
       </c>
       <c r="N15" t="n">
         <v>594.8590026600168</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7355347201706</v>
+        <v>511.3451607609748</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>216.4381588283693</v>
       </c>
       <c r="R15" t="n">
-        <v>27.68087846924516</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>274.3064307457269</v>
       </c>
       <c r="L16" t="n">
-        <v>400.2230686293713</v>
+        <v>400.2230686293712</v>
       </c>
       <c r="M16" t="n">
         <v>431.1354375074285</v>
@@ -35899,7 +35899,7 @@
         <v>649.1732684369154</v>
       </c>
       <c r="P17" t="n">
-        <v>519.204869639404</v>
+        <v>519.2048696394063</v>
       </c>
       <c r="Q17" t="n">
         <v>341.2418942852087</v>
@@ -35963,10 +35963,10 @@
         <v>136.9625992441666</v>
       </c>
       <c r="K18" t="n">
-        <v>84.4538684022271</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>467.7048553399347</v>
+        <v>30.42318902199139</v>
       </c>
       <c r="M18" t="n">
         <v>565.3418980620509</v>
@@ -35975,7 +35975,7 @@
         <v>594.8590026600168</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7355347201706</v>
       </c>
       <c r="P18" t="n">
         <v>399.2104138895024</v>
@@ -36045,7 +36045,7 @@
         <v>274.3064307457269</v>
       </c>
       <c r="L19" t="n">
-        <v>400.2230686293713</v>
+        <v>400.2230686293712</v>
       </c>
       <c r="M19" t="n">
         <v>431.1354375074285</v>
@@ -36121,19 +36121,19 @@
         <v>261.8742771688218</v>
       </c>
       <c r="K20" t="n">
-        <v>443.7326861040199</v>
+        <v>443.73268610402</v>
       </c>
       <c r="L20" t="n">
         <v>587.7641415673861</v>
       </c>
       <c r="M20" t="n">
-        <v>685.9901882710276</v>
+        <v>685.9901882710277</v>
       </c>
       <c r="N20" t="n">
-        <v>701.7506392017858</v>
+        <v>701.750639201786</v>
       </c>
       <c r="O20" t="n">
-        <v>649.1732684369152</v>
+        <v>649.1732684369154</v>
       </c>
       <c r="P20" t="n">
         <v>519.204869639404</v>
@@ -36142,7 +36142,7 @@
         <v>341.2418942852087</v>
       </c>
       <c r="R20" t="n">
-        <v>112.2258863709717</v>
+        <v>112.2258863709718</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>313.0351645890386</v>
+        <v>313.0351645890387</v>
       </c>
       <c r="L21" t="n">
-        <v>467.7048553399346</v>
+        <v>467.7048553399347</v>
       </c>
       <c r="M21" t="n">
         <v>565.3418980620509</v>
       </c>
       <c r="N21" t="n">
-        <v>594.8590026600167</v>
+        <v>503.2403057173719</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7355347201704</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.97521952430233</v>
+        <v>399.2104138895024</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>216.4381588283693</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>27.68087846924516</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.74954174155764</v>
+        <v>96.74954174155766</v>
       </c>
       <c r="K22" t="n">
         <v>274.3064307457269</v>
       </c>
       <c r="L22" t="n">
-        <v>400.2230686293711</v>
+        <v>400.2230686293712</v>
       </c>
       <c r="M22" t="n">
-        <v>431.1354375074284</v>
+        <v>431.1354375074285</v>
       </c>
       <c r="N22" t="n">
         <v>426.9586575115676</v>
@@ -36358,19 +36358,19 @@
         <v>261.8742771688218</v>
       </c>
       <c r="K23" t="n">
-        <v>443.7326861040199</v>
+        <v>443.73268610402</v>
       </c>
       <c r="L23" t="n">
-        <v>587.7641415673868</v>
+        <v>587.7641415673861</v>
       </c>
       <c r="M23" t="n">
-        <v>685.9901882710276</v>
+        <v>685.9901882710277</v>
       </c>
       <c r="N23" t="n">
-        <v>701.7506392017858</v>
+        <v>701.750639201786</v>
       </c>
       <c r="O23" t="n">
-        <v>649.1732684369152</v>
+        <v>649.1732684369154</v>
       </c>
       <c r="P23" t="n">
         <v>519.204869639404</v>
@@ -36379,7 +36379,7 @@
         <v>341.2418942852087</v>
       </c>
       <c r="R23" t="n">
-        <v>112.2258863709717</v>
+        <v>112.2258863709718</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>313.0351645890386</v>
+        <v>313.0351645890387</v>
       </c>
       <c r="L24" t="n">
-        <v>467.7048553399346</v>
+        <v>467.7048553399347</v>
       </c>
       <c r="M24" t="n">
         <v>565.3418980620509</v>
       </c>
       <c r="N24" t="n">
-        <v>594.8590026600167</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7355347201704</v>
+        <v>503.2403057173719</v>
       </c>
       <c r="P24" t="n">
-        <v>29.97521952430233</v>
+        <v>399.2104138895024</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>216.4381588283693</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>27.68087846924516</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>96.74954174155764</v>
+        <v>96.74954174155766</v>
       </c>
       <c r="K25" t="n">
         <v>274.3064307457269</v>
       </c>
       <c r="L25" t="n">
-        <v>400.2230686293711</v>
+        <v>400.2230686293712</v>
       </c>
       <c r="M25" t="n">
-        <v>431.1354375074284</v>
+        <v>431.1354375074285</v>
       </c>
       <c r="N25" t="n">
         <v>426.9586575115676</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>430.9708923408955</v>
+        <v>261.8742771688218</v>
       </c>
       <c r="K26" t="n">
-        <v>443.7326861040199</v>
+        <v>443.73268610402</v>
       </c>
       <c r="L26" t="n">
         <v>587.7641415673861</v>
       </c>
       <c r="M26" t="n">
-        <v>685.9901882710276</v>
+        <v>685.9901882710277</v>
       </c>
       <c r="N26" t="n">
-        <v>701.7506392017858</v>
+        <v>701.750639201786</v>
       </c>
       <c r="O26" t="n">
-        <v>649.1732684369152</v>
+        <v>649.1732684369154</v>
       </c>
       <c r="P26" t="n">
-        <v>519.204869639404</v>
+        <v>814.4840994783927</v>
       </c>
       <c r="Q26" t="n">
-        <v>467.4245089521246</v>
+        <v>341.2418942852087</v>
       </c>
       <c r="R26" t="n">
-        <v>177.9423062439541</v>
+        <v>177.9423062439542</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>136.9625992441666</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>313.0351645890386</v>
+        <v>313.0351645890387</v>
       </c>
       <c r="L27" t="n">
-        <v>467.7048553399346</v>
+        <v>467.7048553399347</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>565.3418980620509</v>
       </c>
       <c r="N27" t="n">
-        <v>409.8840698150863</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7355347201704</v>
+        <v>521.7355347201706</v>
       </c>
       <c r="P27" t="n">
-        <v>399.2104138895023</v>
+        <v>380.715184886704</v>
       </c>
       <c r="Q27" t="n">
-        <v>216.4381588283692</v>
+        <v>216.4381588283693</v>
       </c>
       <c r="R27" t="n">
-        <v>27.68087846924513</v>
+        <v>27.68087846924516</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.14060400244605</v>
+        <v>72.14060400244608</v>
       </c>
       <c r="K28" t="n">
-        <v>249.6974930066153</v>
+        <v>249.6974930066154</v>
       </c>
       <c r="L28" t="n">
         <v>375.6141308902596</v>
@@ -36762,7 +36762,7 @@
         <v>406.5264997683169</v>
       </c>
       <c r="N28" t="n">
-        <v>402.349719772456</v>
+        <v>402.3497197724561</v>
       </c>
       <c r="O28" t="n">
         <v>355.4570121218397</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>430.9708923408955</v>
+        <v>261.8742771688218</v>
       </c>
       <c r="K29" t="n">
-        <v>443.7326861040199</v>
+        <v>443.73268610402</v>
       </c>
       <c r="L29" t="n">
         <v>587.7641415673861</v>
       </c>
       <c r="M29" t="n">
-        <v>685.9901882710276</v>
+        <v>834.6708473230946</v>
       </c>
       <c r="N29" t="n">
-        <v>701.7506392017858</v>
+        <v>701.750639201786</v>
       </c>
       <c r="O29" t="n">
-        <v>649.1732684369152</v>
+        <v>649.1732684369154</v>
       </c>
       <c r="P29" t="n">
         <v>519.204869639404</v>
       </c>
       <c r="Q29" t="n">
-        <v>467.4245089521255</v>
+        <v>553.5568849451133</v>
       </c>
       <c r="R29" t="n">
-        <v>177.9423062439541</v>
+        <v>112.2258863709718</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>136.9625992441666</v>
       </c>
       <c r="K30" t="n">
-        <v>313.0351645890386</v>
+        <v>128.0602317441076</v>
       </c>
       <c r="L30" t="n">
-        <v>467.7048553399346</v>
+        <v>467.7048553399347</v>
       </c>
       <c r="M30" t="n">
-        <v>565.3418980620509</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>594.8590026600167</v>
+        <v>594.8590026600168</v>
       </c>
       <c r="O30" t="n">
-        <v>414.7481550003056</v>
+        <v>521.7355347201706</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>399.2104138895024</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>216.4381588283693</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>27.68087846924516</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.14060400244605</v>
+        <v>72.14060400244608</v>
       </c>
       <c r="K31" t="n">
-        <v>249.6974930066153</v>
+        <v>249.6974930066154</v>
       </c>
       <c r="L31" t="n">
         <v>375.6141308902596</v>
@@ -36999,7 +36999,7 @@
         <v>406.5264997683169</v>
       </c>
       <c r="N31" t="n">
-        <v>402.349719772456</v>
+        <v>402.3497197724561</v>
       </c>
       <c r="O31" t="n">
         <v>355.4570121218397</v>
@@ -37069,19 +37069,19 @@
         <v>261.8742771688218</v>
       </c>
       <c r="K32" t="n">
-        <v>443.7326861040199</v>
+        <v>443.73268610402</v>
       </c>
       <c r="L32" t="n">
         <v>587.7641415673861</v>
       </c>
       <c r="M32" t="n">
-        <v>685.9901882710276</v>
+        <v>685.9901882710277</v>
       </c>
       <c r="N32" t="n">
-        <v>701.7506392017858</v>
+        <v>701.750639201786</v>
       </c>
       <c r="O32" t="n">
-        <v>649.1732684369152</v>
+        <v>649.1732684369154</v>
       </c>
       <c r="P32" t="n">
         <v>519.204869639404</v>
@@ -37090,7 +37090,7 @@
         <v>341.2418942852087</v>
       </c>
       <c r="R32" t="n">
-        <v>112.2258863709717</v>
+        <v>112.2258863709718</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>136.9625992441666</v>
       </c>
       <c r="K33" t="n">
-        <v>313.0351645890386</v>
+        <v>313.0351645890387</v>
       </c>
       <c r="L33" t="n">
-        <v>467.7048553399346</v>
+        <v>467.7048553399347</v>
       </c>
       <c r="M33" t="n">
-        <v>565.3418980620509</v>
+        <v>336.7606018752394</v>
       </c>
       <c r="N33" t="n">
-        <v>594.8590026600167</v>
+        <v>594.8590026600168</v>
       </c>
       <c r="O33" t="n">
-        <v>414.7481550003056</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>399.2104138895024</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>216.4381588283693</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>27.68087846924516</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.74954174155776</v>
+        <v>96.74954174155759</v>
       </c>
       <c r="K34" t="n">
-        <v>274.306430745727</v>
+        <v>274.3064307457269</v>
       </c>
       <c r="L34" t="n">
-        <v>400.2230686293713</v>
+        <v>400.2230686293711</v>
       </c>
       <c r="M34" t="n">
-        <v>431.1354375074285</v>
+        <v>431.1354375074284</v>
       </c>
       <c r="N34" t="n">
-        <v>426.9586575115677</v>
+        <v>426.9586575115675</v>
       </c>
       <c r="O34" t="n">
-        <v>380.0659498609514</v>
+        <v>380.0659498609513</v>
       </c>
       <c r="P34" t="n">
-        <v>305.0055538280706</v>
+        <v>305.0055538280704</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.4631618811686</v>
+        <v>134.4631618811684</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37306,19 @@
         <v>261.8742771688218</v>
       </c>
       <c r="K35" t="n">
-        <v>443.7326861040199</v>
+        <v>443.73268610402</v>
       </c>
       <c r="L35" t="n">
         <v>587.7641415673861</v>
       </c>
       <c r="M35" t="n">
-        <v>685.9901882710276</v>
+        <v>685.9901882710277</v>
       </c>
       <c r="N35" t="n">
-        <v>701.7506392017858</v>
+        <v>701.750639201786</v>
       </c>
       <c r="O35" t="n">
-        <v>649.1732684369152</v>
+        <v>649.1732684369154</v>
       </c>
       <c r="P35" t="n">
         <v>519.204869639404</v>
@@ -37327,7 +37327,7 @@
         <v>341.2418942852087</v>
       </c>
       <c r="R35" t="n">
-        <v>112.2258863709726</v>
+        <v>112.2258863709718</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>136.9625992441666</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>313.0351645890387</v>
       </c>
       <c r="L36" t="n">
-        <v>467.7048553399346</v>
+        <v>239.1235591531232</v>
       </c>
       <c r="M36" t="n">
         <v>565.3418980620509</v>
       </c>
       <c r="N36" t="n">
-        <v>594.8590026600167</v>
+        <v>594.8590026600168</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7355347201704</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>343.0103841133403</v>
+        <v>399.2104138895024</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>216.4381588283693</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>27.68087846924516</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>400.2230686293713</v>
       </c>
       <c r="M37" t="n">
-        <v>431.1354375074285</v>
+        <v>431.1354375074286</v>
       </c>
       <c r="N37" t="n">
         <v>426.9586575115677</v>
@@ -37543,19 +37543,19 @@
         <v>261.8742771688218</v>
       </c>
       <c r="K38" t="n">
-        <v>443.7326861040199</v>
+        <v>443.73268610402</v>
       </c>
       <c r="L38" t="n">
         <v>587.7641415673861</v>
       </c>
       <c r="M38" t="n">
-        <v>685.9901882710276</v>
+        <v>685.9901882710277</v>
       </c>
       <c r="N38" t="n">
-        <v>701.7506392017858</v>
+        <v>701.7506392017863</v>
       </c>
       <c r="O38" t="n">
-        <v>649.1732684369152</v>
+        <v>649.1732684369154</v>
       </c>
       <c r="P38" t="n">
         <v>519.204869639404</v>
@@ -37564,7 +37564,7 @@
         <v>341.2418942852087</v>
       </c>
       <c r="R38" t="n">
-        <v>112.2258863709717</v>
+        <v>112.2258863709718</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>136.9625992441666</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>313.0351645890386</v>
+        <v>313.0351645890387</v>
       </c>
       <c r="L39" t="n">
-        <v>467.7048553399346</v>
+        <v>467.7048553399347</v>
       </c>
       <c r="M39" t="n">
-        <v>565.3418980620509</v>
+        <v>473.723201119406</v>
       </c>
       <c r="N39" t="n">
-        <v>594.8590026600167</v>
+        <v>594.8590026600168</v>
       </c>
       <c r="O39" t="n">
-        <v>414.7481550003056</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>399.2104138895024</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>216.4381588283693</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.68087846924516</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>96.74954174155771</v>
+        <v>96.74954174155772</v>
       </c>
       <c r="K40" t="n">
         <v>274.306430745727</v>
@@ -37713,7 +37713,7 @@
         <v>426.9586575115677</v>
       </c>
       <c r="O40" t="n">
-        <v>380.0659498609513</v>
+        <v>380.0659498609514</v>
       </c>
       <c r="P40" t="n">
         <v>305.0055538280705</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>261.8742771688225</v>
+        <v>261.8742771688218</v>
       </c>
       <c r="K41" t="n">
-        <v>443.7326861040199</v>
+        <v>443.73268610402</v>
       </c>
       <c r="L41" t="n">
         <v>587.7641415673861</v>
       </c>
       <c r="M41" t="n">
-        <v>685.9901882710276</v>
+        <v>685.9901882710277</v>
       </c>
       <c r="N41" t="n">
-        <v>701.7506392017858</v>
+        <v>701.750639201786</v>
       </c>
       <c r="O41" t="n">
-        <v>649.1732684369152</v>
+        <v>649.1732684369157</v>
       </c>
       <c r="P41" t="n">
         <v>519.204869639404</v>
@@ -37801,7 +37801,7 @@
         <v>341.2418942852087</v>
       </c>
       <c r="R41" t="n">
-        <v>112.2258863709717</v>
+        <v>112.2258863709718</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>313.0351645890387</v>
       </c>
       <c r="L42" t="n">
-        <v>167.3857882661584</v>
+        <v>70.78878250548823</v>
       </c>
       <c r="M42" t="n">
         <v>565.3418980620509</v>
       </c>
       <c r="N42" t="n">
-        <v>594.8590026600167</v>
+        <v>594.8590026600168</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7355347201704</v>
+        <v>521.7355347201706</v>
       </c>
       <c r="P42" t="n">
-        <v>399.2104138895023</v>
+        <v>399.2104138895024</v>
       </c>
       <c r="Q42" t="n">
-        <v>216.4381588283692</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>27.68087846924513</v>
+        <v>27.68087846924516</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>96.74954174155764</v>
+        <v>96.74954174155771</v>
       </c>
       <c r="K43" t="n">
-        <v>274.3064307457269</v>
+        <v>274.306430745727</v>
       </c>
       <c r="L43" t="n">
-        <v>400.2230686293711</v>
+        <v>400.2230686293713</v>
       </c>
       <c r="M43" t="n">
-        <v>431.1354375074284</v>
+        <v>431.1354375074285</v>
       </c>
       <c r="N43" t="n">
-        <v>426.9586575115676</v>
+        <v>426.9586575115677</v>
       </c>
       <c r="O43" t="n">
-        <v>380.0659498609513</v>
+        <v>380.0659498609514</v>
       </c>
       <c r="P43" t="n">
-        <v>305.0055538280704</v>
+        <v>305.0055538280705</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.4631618811685</v>
+        <v>134.4631618811686</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>261.8742771688218</v>
       </c>
       <c r="K44" t="n">
-        <v>443.7326861040199</v>
+        <v>443.73268610402</v>
       </c>
       <c r="L44" t="n">
         <v>587.7641415673861</v>
       </c>
       <c r="M44" t="n">
-        <v>685.9901882710276</v>
+        <v>685.9901882710277</v>
       </c>
       <c r="N44" t="n">
-        <v>701.7506392017858</v>
+        <v>701.750639201786</v>
       </c>
       <c r="O44" t="n">
-        <v>649.1732684369152</v>
+        <v>649.1732684369154</v>
       </c>
       <c r="P44" t="n">
         <v>519.204869639404</v>
@@ -38038,7 +38038,7 @@
         <v>341.2418942852087</v>
       </c>
       <c r="R44" t="n">
-        <v>112.2258863709735</v>
+        <v>112.2258863709718</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>313.0351645890387</v>
       </c>
       <c r="L45" t="n">
-        <v>167.3857882661584</v>
+        <v>467.7048553399347</v>
       </c>
       <c r="M45" t="n">
         <v>565.3418980620509</v>
       </c>
       <c r="N45" t="n">
-        <v>594.8590026600167</v>
+        <v>197.9429298255703</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7355347201704</v>
+        <v>521.7355347201706</v>
       </c>
       <c r="P45" t="n">
-        <v>399.2104138895023</v>
+        <v>399.2104138895024</v>
       </c>
       <c r="Q45" t="n">
-        <v>216.4381588283692</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.68087846924513</v>
+        <v>27.68087846924516</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>96.74954174155764</v>
+        <v>96.74954174155771</v>
       </c>
       <c r="K46" t="n">
-        <v>274.3064307457269</v>
+        <v>274.306430745727</v>
       </c>
       <c r="L46" t="n">
-        <v>400.2230686293711</v>
+        <v>400.2230686293713</v>
       </c>
       <c r="M46" t="n">
-        <v>431.1354375074284</v>
+        <v>431.1354375074285</v>
       </c>
       <c r="N46" t="n">
-        <v>426.9586575115676</v>
+        <v>426.9586575115677</v>
       </c>
       <c r="O46" t="n">
-        <v>380.0659498609513</v>
+        <v>380.0659498609514</v>
       </c>
       <c r="P46" t="n">
-        <v>305.0055538280704</v>
+        <v>305.0055538280705</v>
       </c>
       <c r="Q46" t="n">
-        <v>134.4631618811685</v>
+        <v>134.4631618811686</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
